--- a/02-Sesión/Thesaurus Maria Jose Murcia Martinez.xlsx
+++ b/02-Sesión/Thesaurus Maria Jose Murcia Martinez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - SENA\Documentos\complementario-3125033\02-Sesion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - SENA\Documentos\complementario-3125033\02-Sesión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182C0F9-9A27-4B55-8085-155EE00CD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC4F52-0A02-4235-970D-29D77DFD5C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="174">
   <si>
     <t>Número</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>Que es y en que consiste la arquitectura de software</t>
-  </si>
-  <si>
-    <t>Introducci´onalaReingenier´ ıadeSoftware
- MediantePatronesdeDise˜no</t>
   </si>
   <si>
     <t>upm.es</t>
@@ -266,9 +262,6 @@
     <t>Rodríguez Peña, A. D., &amp; Silva Rojas, L. G. (2016). Arquitectura de software para el sistema de visualización médica Vismedic. Revista Cubana de Informática Médica, 8(1), 75-86.</t>
   </si>
   <si>
-    <t>patrones de diseño</t>
-  </si>
-  <si>
     <t>"Arquitectura de software " and "patrones de diseño"</t>
   </si>
   <si>
@@ -281,19 +274,10 @@
     <t>Lazo, L., &amp; Paul, J. (2004). Desarrollo de sistemas de software con patrones de diseño orientado a objetos.</t>
   </si>
   <si>
-    <t>arquitectura de software</t>
-  </si>
-  <si>
-    <t>"atributos de calidad " AND "arquitectura de software "</t>
-  </si>
-  <si>
     <t>Arquitectura de software en el proceso de desarrollo ágil: una perspectiva basada en requisitos significantes para la arquitectura</t>
   </si>
   <si>
     <t>Navarro, M. E., Moreno, M. P., Aranda, J., Parra, L., &amp; Rueda, J. R. (2018). Arquitectura de software en el proceso de desarrollo ágil: una perspectiva basada en requisitos significantes para la arquitectura. In XX Workshop de Investigadores en Ciencias de la Computación (WICC 2018, Universidad Nacional del Nordeste)..</t>
-  </si>
-  <si>
-    <t>"patrones de diseño software"</t>
   </si>
   <si>
     <t>Uvp</t>
@@ -305,9 +289,6 @@
   </si>
   <si>
     <t>Ferrandis Homsi, A. (2021). Desarrollo de una herramienta para el aprendizaje de patrones de diseño software (Doctoral dissertation, Universitat Politècnica de València).</t>
-  </si>
-  <si>
-    <t>"aplicación de patrones de diseño"</t>
   </si>
   <si>
     <r>
@@ -373,9 +354,6 @@
 </t>
   </si>
   <si>
-    <t>que es "Arquitectura de software"</t>
-  </si>
-  <si>
     <t>Scielo</t>
   </si>
   <si>
@@ -392,13 +370,7 @@
  SOFTWARE EN CAPAS</t>
   </si>
   <si>
-    <t>Articulo</t>
-  </si>
-  <si>
     <t>Cardacci, D. G. (2015). Arquitectura de software académica para la comprensión del desarrollo de software en capas (No. 574). Serie Documentos de Trabajo.</t>
-  </si>
-  <si>
-    <t>"patrones de diseños"</t>
   </si>
   <si>
     <t>Módulo de recomendación de patrones de diseño para EGPat</t>
@@ -472,9 +444,6 @@
     <t>Patrones de diseño - C++</t>
   </si>
   <si>
-    <t>tipos de patrones de diseño en el desarrollo de software</t>
-  </si>
-  <si>
     <t>inaoep.mx</t>
   </si>
   <si>
@@ -491,9 +460,6 @@
   </si>
   <si>
     <t>Pacheco, A., Escobar, J., &amp; Trujillo, E. USO DE PATRONES DE DISEÑO Y METAPROGRAMACIÓN PARA CONSTRUIR APIS DE IOT USANDO C+.</t>
-  </si>
-  <si>
-    <t>framework web - patrones de diseño</t>
   </si>
   <si>
     <t>DISEÑO DE FRAMEWORK WEB PARA EL DESARROLLO DINÁMICO DE 
@@ -506,9 +472,6 @@
     <t>Aprendizaje -patrones de diseño</t>
   </si>
   <si>
-    <t>proyectos que utilizaron patrones de diseño de software en colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">COFFEE CHALLENGE: UN JUEGO PARA EL APRENDIZAJE DE 
 PATRONES DE DISEÑO DE SOFTWARE </t>
   </si>
@@ -520,16 +483,131 @@
   </si>
   <si>
     <t>https://n9.cl/vzvqm</t>
+  </si>
+  <si>
+    <t>https://n9.cl/vwg2l</t>
+  </si>
+  <si>
+    <t>https://n9.cl/9gjrb</t>
+  </si>
+  <si>
+    <t>https://n9.cl/qjynz7</t>
+  </si>
+  <si>
+    <t>https://n9.cl/bxew6</t>
+  </si>
+  <si>
+    <t>https://n9.cl/d9ms3</t>
+  </si>
+  <si>
+    <t>https://n9.cl/69c366</t>
+  </si>
+  <si>
+    <t>https://n9.cl/dr0m7</t>
+  </si>
+  <si>
+    <t>https://n9.cl/csaft</t>
+  </si>
+  <si>
+    <t>https://n9.cl/ahapn</t>
+  </si>
+  <si>
+    <t>https://n9.cl/lbj1l</t>
+  </si>
+  <si>
+    <t>https://n9.cl/c7q9l</t>
+  </si>
+  <si>
+    <t>https://n9.cl/vzi9b</t>
+  </si>
+  <si>
+    <t>https://n9.cl/dch02</t>
+  </si>
+  <si>
+    <t>https://n9.cl/y2kte</t>
+  </si>
+  <si>
+    <t>https://n9.cl/ch7fg</t>
+  </si>
+  <si>
+    <t>https://n9.cl/qbptus</t>
+  </si>
+  <si>
+    <t>https://n9.cl/i2em3j</t>
+  </si>
+  <si>
+    <t>https://n9.cl/dyk2n</t>
+  </si>
+  <si>
+    <t>https://n9.cl/obnv8</t>
+  </si>
+  <si>
+    <t>https://n9.cl/0tbddk</t>
+  </si>
+  <si>
+    <t>https://n9.cl/xueyi</t>
+  </si>
+  <si>
+    <t>https://n9.cl/19q8h</t>
+  </si>
+  <si>
+    <t>https://n9.cl/4ltlpl</t>
+  </si>
+  <si>
+    <t>https://n9.cl/36fcsk</t>
+  </si>
+  <si>
+    <t>https://n9.cl/hd76tl</t>
+  </si>
+  <si>
+    <t>https://n9.cl/q551g</t>
+  </si>
+  <si>
+    <t>https://n9.cl/tpoof</t>
+  </si>
+  <si>
+    <t>https://n9.cl/shita1</t>
+  </si>
+  <si>
+    <t>https://n9.cl/zdl94</t>
+  </si>
+  <si>
+    <t>https://n9.cl/f59w2</t>
+  </si>
+  <si>
+    <t>https://n9.cl/fa0m7</t>
+  </si>
+  <si>
+    <t>https://n9.cl/k2i4o</t>
+  </si>
+  <si>
+    <t>Introducción a la Reingeniería de Software
+ Mediante Patrones de Diseño</t>
+  </si>
+  <si>
+    <t>Tipos de patrones de diseño en el desarrollo de software</t>
+  </si>
+  <si>
+    <t>Proyectos que utilizaron patrones de diseño de software en colombia</t>
+  </si>
+  <si>
+    <t>"Patrones de diseños"</t>
+  </si>
+  <si>
+    <t>"Aplicación de patrones de diseño"</t>
+  </si>
+  <si>
+    <t>"Atributos de calidad " AND "arquitectura de software "</t>
+  </si>
+  <si>
+    <t>Framework web - patrones de diseño</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,12 +623,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -576,20 +648,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -611,35 +671,6 @@
     </font>
     <font>
       <u/>
-      <sz val="9"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -651,7 +682,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -659,7 +689,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -680,32 +710,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -717,38 +723,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -912,9 +894,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,10 +922,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,8 +934,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,8 +943,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -970,167 +953,95 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,9 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1413,12 +1324,12 @@
         <v>11</v>
       </c>
       <c r="D2" s="5">
-        <v>45606</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>45605</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1430,11 +1341,11 @@
       <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1445,12 +1356,12 @@
         <v>17</v>
       </c>
       <c r="D3" s="5">
-        <v>45607</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>45605</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1462,11 +1373,11 @@
       <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1477,10 +1388,12 @@
         <v>21</v>
       </c>
       <c r="D4" s="5">
-        <v>45608</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+        <v>45605</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1492,11 +1405,11 @@
       <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1504,17 +1417,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45605</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
-        <v>45608</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="4">
         <v>2170</v>
@@ -1522,30 +1437,32 @@
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45605</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45609</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="4">
         <v>191</v>
@@ -1553,29 +1470,31 @@
       <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45606</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45610</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="4">
         <v>103</v>
@@ -1583,29 +1502,31 @@
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5">
+        <v>45606</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45576</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="4">
         <v>103</v>
@@ -1613,8 +1534,8 @@
       <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>41</v>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="69" x14ac:dyDescent="0.3">
@@ -1622,18 +1543,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5">
+        <v>45606</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="4">
         <v>48500</v>
@@ -1641,43 +1566,47 @@
       <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="J9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45606</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="4">
         <v>48500</v>
@@ -1685,672 +1614,740 @@
       <c r="I10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>49</v>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45606</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="10">
         <v>113000</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="69" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="5">
+        <v>45607</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>47300</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-    </row>
-    <row r="13" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="5">
+        <v>45607</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>4830</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-    </row>
-    <row r="14" spans="1:26" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="5">
+        <v>45607</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="H14" s="17">
         <v>64.900000000000006</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="5">
+        <v>45607</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27" t="s">
+      <c r="G15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="H15" s="17">
         <v>46.3</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="5">
+        <v>45607</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="24">
+      <c r="H16" s="17">
         <v>283</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45608</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="69" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27" t="s">
+      <c r="G17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="H17" s="17">
         <v>191</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="D18" s="5">
+        <v>45608</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="G18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="H18" s="17">
         <v>4.83</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="24">
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45608</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="17">
         <v>2.17</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
+      <c r="J19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
     </row>
     <row r="20" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45608</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="10">
         <v>169</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="32"/>
+      <c r="J20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="35">
-        <v>45606</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="34">
+      <c r="C21" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45608</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="24">
         <v>340</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="32"/>
+      <c r="J21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="38">
-        <v>45611</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="B22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45609</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="24">
         <v>25400</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="38">
-        <v>45607</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="34">
+      <c r="C23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45609</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="24">
         <v>20600</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="40"/>
+      <c r="J23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="38">
-        <v>42912</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="34">
+      <c r="C24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45609</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="24">
         <v>20300</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>24</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45609</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="47">
+        <v>4.83</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+    </row>
+    <row r="26" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45609</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45610</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42" t="s">
+      <c r="H27" s="24">
+        <v>169</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+    </row>
+    <row r="28" spans="1:26" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="42">
-        <v>4.83</v>
-      </c>
-      <c r="I25" s="42" t="s">
+      <c r="C28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="D28" s="5">
+        <v>45610</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-    </row>
-    <row r="26" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48">
-        <v>25</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="G28" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="53" t="s">
+      <c r="H28" s="24">
+        <v>58.1</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="49">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-    </row>
-    <row r="27" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55">
-        <v>26</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="53">
-        <v>169</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-    </row>
-    <row r="28" spans="1:26" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55">
-        <v>27</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="53">
-        <v>58.1</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45610</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H29" s="4">
         <v>745000</v>
@@ -2358,27 +2355,47 @@
       <c r="I29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+    </row>
+    <row r="30" spans="1:26" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="62" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45610</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H30" s="4">
         <v>167000</v>
@@ -2386,43 +2403,47 @@
       <c r="I30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-    </row>
-    <row r="31" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+    </row>
+    <row r="31" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="62" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45610</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H31" s="4">
         <v>167000</v>
@@ -2430,8 +2451,8 @@
       <c r="I31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>129</v>
+      <c r="J31" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,18 +2460,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="62" t="s">
-        <v>132</v>
+        <v>168</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45611</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H32" s="4">
         <v>182000</v>
@@ -2458,27 +2483,31 @@
       <c r="I32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45611</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="64" t="s">
-        <v>136</v>
+      <c r="G33" s="52" t="s">
+        <v>126</v>
       </c>
       <c r="H33" s="4">
         <v>182000</v>
@@ -2486,27 +2515,31 @@
       <c r="I33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="62" t="s">
-        <v>53</v>
+        <v>168</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45611</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H34" s="4">
         <v>182000</v>
@@ -2514,27 +2547,31 @@
       <c r="I34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="302.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="62" t="s">
-        <v>116</v>
+        <v>169</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45611</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H35" s="4">
         <v>53700</v>
@@ -2542,3948 +2579,3948 @@
       <c r="I35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>144</v>
+      <c r="J35" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="22"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="22"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="22"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="22"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="22"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="75"/>
-      <c r="G46" s="76"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="74"/>
-      <c r="E51" s="75"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="74"/>
-      <c r="E52" s="75"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="74"/>
-      <c r="E57" s="75"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="74"/>
-      <c r="E58" s="75"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="74"/>
-      <c r="E59" s="75"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="74"/>
-      <c r="E61" s="75"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="74"/>
-      <c r="E63" s="75"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="74"/>
-      <c r="E64" s="75"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="74"/>
-      <c r="E65" s="75"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="74"/>
-      <c r="E66" s="75"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="74"/>
-      <c r="E67" s="75"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="74"/>
-      <c r="E68" s="75"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="74"/>
-      <c r="E69" s="75"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="74"/>
-      <c r="E70" s="75"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="74"/>
-      <c r="E71" s="75"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="74"/>
-      <c r="E72" s="75"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="74"/>
-      <c r="E73" s="75"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="74"/>
-      <c r="E74" s="75"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="74"/>
-      <c r="E75" s="75"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="74"/>
-      <c r="E76" s="75"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="74"/>
-      <c r="E77" s="75"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="74"/>
-      <c r="E78" s="75"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="74"/>
-      <c r="E79" s="75"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="74"/>
-      <c r="E80" s="75"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="74"/>
-      <c r="E81" s="75"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="74"/>
-      <c r="E82" s="75"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="74"/>
-      <c r="E83" s="75"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="74"/>
-      <c r="E84" s="75"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="74"/>
-      <c r="E85" s="75"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="74"/>
-      <c r="E86" s="75"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="74"/>
-      <c r="E87" s="75"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="74"/>
-      <c r="E88" s="75"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="74"/>
-      <c r="E89" s="75"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="74"/>
-      <c r="E90" s="75"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="74"/>
-      <c r="E91" s="75"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="74"/>
-      <c r="E92" s="75"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="74"/>
-      <c r="E93" s="75"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="74"/>
-      <c r="E94" s="75"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="38"/>
     </row>
     <row r="95" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="74"/>
-      <c r="E95" s="75"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="74"/>
-      <c r="E96" s="75"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="74"/>
-      <c r="E97" s="75"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38"/>
     </row>
     <row r="98" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="74"/>
-      <c r="E98" s="75"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="74"/>
-      <c r="E99" s="75"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="74"/>
-      <c r="E100" s="75"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="74"/>
-      <c r="E101" s="75"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="38"/>
     </row>
     <row r="102" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="74"/>
-      <c r="E102" s="75"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="74"/>
-      <c r="E103" s="75"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="74"/>
-      <c r="E104" s="75"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
     </row>
     <row r="105" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="74"/>
-      <c r="E105" s="75"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38"/>
     </row>
     <row r="106" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="74"/>
-      <c r="E106" s="75"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="38"/>
     </row>
     <row r="107" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="74"/>
-      <c r="E107" s="75"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="74"/>
-      <c r="E108" s="75"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="74"/>
-      <c r="E109" s="75"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="74"/>
-      <c r="E110" s="75"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="38"/>
     </row>
     <row r="111" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="74"/>
-      <c r="E111" s="75"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="74"/>
-      <c r="E112" s="75"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="38"/>
     </row>
     <row r="113" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="74"/>
-      <c r="E113" s="75"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="38"/>
     </row>
     <row r="114" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="74"/>
-      <c r="E114" s="75"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="38"/>
     </row>
     <row r="115" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="74"/>
-      <c r="E115" s="75"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="74"/>
-      <c r="E116" s="75"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="74"/>
-      <c r="E117" s="75"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="38"/>
     </row>
     <row r="118" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="74"/>
-      <c r="E118" s="75"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="38"/>
     </row>
     <row r="119" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="74"/>
-      <c r="E119" s="75"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="38"/>
     </row>
     <row r="120" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="74"/>
-      <c r="E120" s="75"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="74"/>
-      <c r="E121" s="75"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="38"/>
     </row>
     <row r="122" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="74"/>
-      <c r="E122" s="75"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="38"/>
     </row>
     <row r="123" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="74"/>
-      <c r="E123" s="75"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="38"/>
     </row>
     <row r="124" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="74"/>
-      <c r="E124" s="75"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="38"/>
     </row>
     <row r="125" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="74"/>
-      <c r="E125" s="75"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="38"/>
     </row>
     <row r="126" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="74"/>
-      <c r="E126" s="75"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="38"/>
     </row>
     <row r="127" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="74"/>
-      <c r="E127" s="75"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="38"/>
     </row>
     <row r="128" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="74"/>
-      <c r="E128" s="75"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="74"/>
-      <c r="E129" s="75"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="38"/>
     </row>
     <row r="130" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="74"/>
-      <c r="E130" s="75"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="38"/>
     </row>
     <row r="131" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="74"/>
-      <c r="E131" s="75"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="38"/>
     </row>
     <row r="132" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="74"/>
-      <c r="E132" s="75"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="74"/>
-      <c r="E133" s="75"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="38"/>
     </row>
     <row r="134" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="74"/>
-      <c r="E134" s="75"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
     </row>
     <row r="135" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="74"/>
-      <c r="E135" s="75"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="74"/>
-      <c r="E136" s="75"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="38"/>
     </row>
     <row r="137" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="74"/>
-      <c r="E137" s="75"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
     </row>
     <row r="138" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="74"/>
-      <c r="E138" s="75"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="38"/>
     </row>
     <row r="139" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="74"/>
-      <c r="E139" s="75"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="74"/>
-      <c r="E140" s="75"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="38"/>
     </row>
     <row r="141" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="74"/>
-      <c r="E141" s="75"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="38"/>
     </row>
     <row r="142" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="74"/>
-      <c r="E142" s="75"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="38"/>
     </row>
     <row r="143" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="74"/>
-      <c r="E143" s="75"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="38"/>
     </row>
     <row r="144" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="74"/>
-      <c r="E144" s="75"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="38"/>
     </row>
     <row r="145" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="74"/>
-      <c r="E145" s="75"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
     </row>
     <row r="146" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="74"/>
-      <c r="E146" s="75"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="38"/>
     </row>
     <row r="147" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="74"/>
-      <c r="E147" s="75"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="38"/>
     </row>
     <row r="148" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="74"/>
-      <c r="E148" s="75"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="74"/>
-      <c r="E149" s="75"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="74"/>
-      <c r="E150" s="75"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="38"/>
     </row>
     <row r="151" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="74"/>
-      <c r="E151" s="75"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="38"/>
     </row>
     <row r="152" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="74"/>
-      <c r="E152" s="75"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="38"/>
     </row>
     <row r="153" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="74"/>
-      <c r="E153" s="75"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="38"/>
     </row>
     <row r="154" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="74"/>
-      <c r="E154" s="75"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="74"/>
-      <c r="E155" s="75"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="38"/>
     </row>
     <row r="156" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="74"/>
-      <c r="E156" s="75"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="38"/>
     </row>
     <row r="157" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="74"/>
-      <c r="E157" s="75"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="38"/>
     </row>
     <row r="158" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="74"/>
-      <c r="E158" s="75"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="38"/>
     </row>
     <row r="159" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="74"/>
-      <c r="E159" s="75"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="74"/>
-      <c r="E160" s="75"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="38"/>
     </row>
     <row r="161" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="74"/>
-      <c r="E161" s="75"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="38"/>
     </row>
     <row r="162" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="74"/>
-      <c r="E162" s="75"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="38"/>
     </row>
     <row r="163" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="74"/>
-      <c r="E163" s="75"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="38"/>
     </row>
     <row r="164" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="74"/>
-      <c r="E164" s="75"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="38"/>
     </row>
     <row r="165" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="74"/>
-      <c r="E165" s="75"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="38"/>
     </row>
     <row r="166" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="74"/>
-      <c r="E166" s="75"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="38"/>
     </row>
     <row r="167" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="74"/>
-      <c r="E167" s="75"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="38"/>
     </row>
     <row r="168" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="74"/>
-      <c r="E168" s="75"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="74"/>
-      <c r="E169" s="75"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="38"/>
     </row>
     <row r="170" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="74"/>
-      <c r="E170" s="75"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="38"/>
     </row>
     <row r="171" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="74"/>
-      <c r="E171" s="75"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="38"/>
     </row>
     <row r="172" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="74"/>
-      <c r="E172" s="75"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="38"/>
     </row>
     <row r="173" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="74"/>
-      <c r="E173" s="75"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="38"/>
     </row>
     <row r="174" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="74"/>
-      <c r="E174" s="75"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="38"/>
     </row>
     <row r="175" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="74"/>
-      <c r="E175" s="75"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="38"/>
     </row>
     <row r="176" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="74"/>
-      <c r="E176" s="75"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="38"/>
     </row>
     <row r="177" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="74"/>
-      <c r="E177" s="75"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="38"/>
     </row>
     <row r="178" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="74"/>
-      <c r="E178" s="75"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="38"/>
     </row>
     <row r="179" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="74"/>
-      <c r="E179" s="75"/>
+      <c r="D179" s="37"/>
+      <c r="E179" s="38"/>
     </row>
     <row r="180" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="74"/>
-      <c r="E180" s="75"/>
+      <c r="D180" s="37"/>
+      <c r="E180" s="38"/>
     </row>
     <row r="181" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="74"/>
-      <c r="E181" s="75"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="38"/>
     </row>
     <row r="182" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="74"/>
-      <c r="E182" s="75"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="38"/>
     </row>
     <row r="183" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="74"/>
-      <c r="E183" s="75"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="38"/>
     </row>
     <row r="184" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="74"/>
-      <c r="E184" s="75"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="38"/>
     </row>
     <row r="185" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="74"/>
-      <c r="E185" s="75"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="38"/>
     </row>
     <row r="186" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="74"/>
-      <c r="E186" s="75"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="38"/>
     </row>
     <row r="187" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="74"/>
-      <c r="E187" s="75"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="38"/>
     </row>
     <row r="188" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="74"/>
-      <c r="E188" s="75"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="38"/>
     </row>
     <row r="189" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="74"/>
-      <c r="E189" s="75"/>
+      <c r="D189" s="37"/>
+      <c r="E189" s="38"/>
     </row>
     <row r="190" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="74"/>
-      <c r="E190" s="75"/>
+      <c r="D190" s="37"/>
+      <c r="E190" s="38"/>
     </row>
     <row r="191" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="74"/>
-      <c r="E191" s="75"/>
+      <c r="D191" s="37"/>
+      <c r="E191" s="38"/>
     </row>
     <row r="192" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="74"/>
-      <c r="E192" s="75"/>
+      <c r="D192" s="37"/>
+      <c r="E192" s="38"/>
     </row>
     <row r="193" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="74"/>
-      <c r="E193" s="75"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="38"/>
     </row>
     <row r="194" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="74"/>
-      <c r="E194" s="75"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="38"/>
     </row>
     <row r="195" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="74"/>
-      <c r="E195" s="75"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="38"/>
     </row>
     <row r="196" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="74"/>
-      <c r="E196" s="75"/>
+      <c r="D196" s="37"/>
+      <c r="E196" s="38"/>
     </row>
     <row r="197" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="74"/>
-      <c r="E197" s="75"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="38"/>
     </row>
     <row r="198" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="74"/>
-      <c r="E198" s="75"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="38"/>
     </row>
     <row r="199" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="74"/>
-      <c r="E199" s="75"/>
+      <c r="D199" s="37"/>
+      <c r="E199" s="38"/>
     </row>
     <row r="200" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="74"/>
-      <c r="E200" s="75"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="38"/>
     </row>
     <row r="201" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="74"/>
-      <c r="E201" s="75"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="38"/>
     </row>
     <row r="202" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="74"/>
-      <c r="E202" s="75"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="38"/>
     </row>
     <row r="203" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="74"/>
-      <c r="E203" s="75"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="38"/>
     </row>
     <row r="204" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="74"/>
-      <c r="E204" s="75"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="38"/>
     </row>
     <row r="205" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="74"/>
-      <c r="E205" s="75"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="38"/>
     </row>
     <row r="206" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="74"/>
-      <c r="E206" s="75"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="38"/>
     </row>
     <row r="207" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="74"/>
-      <c r="E207" s="75"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="38"/>
     </row>
     <row r="208" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="74"/>
-      <c r="E208" s="75"/>
+      <c r="D208" s="37"/>
+      <c r="E208" s="38"/>
     </row>
     <row r="209" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="74"/>
-      <c r="E209" s="75"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="38"/>
     </row>
     <row r="210" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="74"/>
-      <c r="E210" s="75"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="38"/>
     </row>
     <row r="211" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="74"/>
-      <c r="E211" s="75"/>
+      <c r="D211" s="37"/>
+      <c r="E211" s="38"/>
     </row>
     <row r="212" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="74"/>
-      <c r="E212" s="75"/>
+      <c r="D212" s="37"/>
+      <c r="E212" s="38"/>
     </row>
     <row r="213" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="74"/>
-      <c r="E213" s="75"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="38"/>
     </row>
     <row r="214" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="74"/>
-      <c r="E214" s="75"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="38"/>
     </row>
     <row r="215" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="74"/>
-      <c r="E215" s="75"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="38"/>
     </row>
     <row r="216" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="74"/>
-      <c r="E216" s="75"/>
+      <c r="D216" s="37"/>
+      <c r="E216" s="38"/>
     </row>
     <row r="217" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="74"/>
-      <c r="E217" s="75"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="38"/>
     </row>
     <row r="218" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="74"/>
-      <c r="E218" s="75"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="38"/>
     </row>
     <row r="219" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="74"/>
-      <c r="E219" s="75"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="38"/>
     </row>
     <row r="220" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="74"/>
-      <c r="E220" s="75"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="38"/>
     </row>
     <row r="221" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="74"/>
-      <c r="E221" s="75"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="38"/>
     </row>
     <row r="222" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="74"/>
-      <c r="E222" s="75"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="38"/>
     </row>
     <row r="223" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="74"/>
-      <c r="E223" s="75"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="38"/>
     </row>
     <row r="224" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="74"/>
-      <c r="E224" s="75"/>
+      <c r="D224" s="37"/>
+      <c r="E224" s="38"/>
     </row>
     <row r="225" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="74"/>
-      <c r="E225" s="75"/>
+      <c r="D225" s="37"/>
+      <c r="E225" s="38"/>
     </row>
     <row r="226" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="74"/>
-      <c r="E226" s="75"/>
+      <c r="D226" s="37"/>
+      <c r="E226" s="38"/>
     </row>
     <row r="227" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="74"/>
-      <c r="E227" s="75"/>
+      <c r="D227" s="37"/>
+      <c r="E227" s="38"/>
     </row>
     <row r="228" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="74"/>
-      <c r="E228" s="75"/>
+      <c r="D228" s="37"/>
+      <c r="E228" s="38"/>
     </row>
     <row r="229" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="74"/>
-      <c r="E229" s="75"/>
+      <c r="D229" s="37"/>
+      <c r="E229" s="38"/>
     </row>
     <row r="230" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="74"/>
-      <c r="E230" s="75"/>
+      <c r="D230" s="37"/>
+      <c r="E230" s="38"/>
     </row>
     <row r="231" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="74"/>
-      <c r="E231" s="75"/>
+      <c r="D231" s="37"/>
+      <c r="E231" s="38"/>
     </row>
     <row r="232" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="74"/>
-      <c r="E232" s="75"/>
+      <c r="D232" s="37"/>
+      <c r="E232" s="38"/>
     </row>
     <row r="233" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="74"/>
-      <c r="E233" s="75"/>
+      <c r="D233" s="37"/>
+      <c r="E233" s="38"/>
     </row>
     <row r="234" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="74"/>
-      <c r="E234" s="75"/>
+      <c r="D234" s="37"/>
+      <c r="E234" s="38"/>
     </row>
     <row r="235" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="74"/>
-      <c r="E235" s="75"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="38"/>
     </row>
     <row r="236" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="74"/>
-      <c r="E236" s="75"/>
+      <c r="D236" s="37"/>
+      <c r="E236" s="38"/>
     </row>
     <row r="237" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="74"/>
-      <c r="E237" s="75"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="38"/>
     </row>
     <row r="238" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="74"/>
-      <c r="E238" s="75"/>
+      <c r="D238" s="37"/>
+      <c r="E238" s="38"/>
     </row>
     <row r="239" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="74"/>
-      <c r="E239" s="75"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="38"/>
     </row>
     <row r="240" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="74"/>
-      <c r="E240" s="75"/>
+      <c r="D240" s="37"/>
+      <c r="E240" s="38"/>
     </row>
     <row r="241" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="74"/>
-      <c r="E241" s="75"/>
+      <c r="D241" s="37"/>
+      <c r="E241" s="38"/>
     </row>
     <row r="242" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="74"/>
-      <c r="E242" s="75"/>
+      <c r="D242" s="37"/>
+      <c r="E242" s="38"/>
     </row>
     <row r="243" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="74"/>
-      <c r="E243" s="75"/>
+      <c r="D243" s="37"/>
+      <c r="E243" s="38"/>
     </row>
     <row r="244" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="74"/>
-      <c r="E244" s="75"/>
+      <c r="D244" s="37"/>
+      <c r="E244" s="38"/>
     </row>
     <row r="245" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="74"/>
-      <c r="E245" s="75"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="38"/>
     </row>
     <row r="246" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="74"/>
-      <c r="E246" s="75"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="38"/>
     </row>
     <row r="247" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="74"/>
-      <c r="E247" s="75"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="38"/>
     </row>
     <row r="248" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="74"/>
-      <c r="E248" s="75"/>
+      <c r="D248" s="37"/>
+      <c r="E248" s="38"/>
     </row>
     <row r="249" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="74"/>
-      <c r="E249" s="75"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="38"/>
     </row>
     <row r="250" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="74"/>
-      <c r="E250" s="75"/>
+      <c r="D250" s="37"/>
+      <c r="E250" s="38"/>
     </row>
     <row r="251" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="74"/>
-      <c r="E251" s="75"/>
+      <c r="D251" s="37"/>
+      <c r="E251" s="38"/>
     </row>
     <row r="252" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="74"/>
-      <c r="E252" s="75"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="38"/>
     </row>
     <row r="253" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="74"/>
-      <c r="E253" s="75"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="38"/>
     </row>
     <row r="254" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="74"/>
-      <c r="E254" s="75"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="38"/>
     </row>
     <row r="255" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="74"/>
-      <c r="E255" s="75"/>
+      <c r="D255" s="37"/>
+      <c r="E255" s="38"/>
     </row>
     <row r="256" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="74"/>
-      <c r="E256" s="75"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="38"/>
     </row>
     <row r="257" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="74"/>
-      <c r="E257" s="75"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="38"/>
     </row>
     <row r="258" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="74"/>
-      <c r="E258" s="75"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="38"/>
     </row>
     <row r="259" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="74"/>
-      <c r="E259" s="75"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="38"/>
     </row>
     <row r="260" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="74"/>
-      <c r="E260" s="75"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="38"/>
     </row>
     <row r="261" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="74"/>
-      <c r="E261" s="75"/>
+      <c r="D261" s="37"/>
+      <c r="E261" s="38"/>
     </row>
     <row r="262" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="74"/>
-      <c r="E262" s="75"/>
+      <c r="D262" s="37"/>
+      <c r="E262" s="38"/>
     </row>
     <row r="263" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="74"/>
-      <c r="E263" s="75"/>
+      <c r="D263" s="37"/>
+      <c r="E263" s="38"/>
     </row>
     <row r="264" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="74"/>
-      <c r="E264" s="75"/>
+      <c r="D264" s="37"/>
+      <c r="E264" s="38"/>
     </row>
     <row r="265" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="74"/>
-      <c r="E265" s="75"/>
+      <c r="D265" s="37"/>
+      <c r="E265" s="38"/>
     </row>
     <row r="266" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="74"/>
-      <c r="E266" s="75"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="38"/>
     </row>
     <row r="267" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="74"/>
-      <c r="E267" s="75"/>
+      <c r="D267" s="37"/>
+      <c r="E267" s="38"/>
     </row>
     <row r="268" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="74"/>
-      <c r="E268" s="75"/>
+      <c r="D268" s="37"/>
+      <c r="E268" s="38"/>
     </row>
     <row r="269" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="74"/>
-      <c r="E269" s="75"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="38"/>
     </row>
     <row r="270" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="74"/>
-      <c r="E270" s="75"/>
+      <c r="D270" s="37"/>
+      <c r="E270" s="38"/>
     </row>
     <row r="271" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="74"/>
-      <c r="E271" s="75"/>
+      <c r="D271" s="37"/>
+      <c r="E271" s="38"/>
     </row>
     <row r="272" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="74"/>
-      <c r="E272" s="75"/>
+      <c r="D272" s="37"/>
+      <c r="E272" s="38"/>
     </row>
     <row r="273" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="74"/>
-      <c r="E273" s="75"/>
+      <c r="D273" s="37"/>
+      <c r="E273" s="38"/>
     </row>
     <row r="274" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="74"/>
-      <c r="E274" s="75"/>
+      <c r="D274" s="37"/>
+      <c r="E274" s="38"/>
     </row>
     <row r="275" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="74"/>
-      <c r="E275" s="75"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="38"/>
     </row>
     <row r="276" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="74"/>
-      <c r="E276" s="75"/>
+      <c r="D276" s="37"/>
+      <c r="E276" s="38"/>
     </row>
     <row r="277" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="74"/>
-      <c r="E277" s="75"/>
+      <c r="D277" s="37"/>
+      <c r="E277" s="38"/>
     </row>
     <row r="278" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="74"/>
-      <c r="E278" s="75"/>
+      <c r="D278" s="37"/>
+      <c r="E278" s="38"/>
     </row>
     <row r="279" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="74"/>
-      <c r="E279" s="75"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="38"/>
     </row>
     <row r="280" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="74"/>
-      <c r="E280" s="75"/>
+      <c r="D280" s="37"/>
+      <c r="E280" s="38"/>
     </row>
     <row r="281" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="74"/>
-      <c r="E281" s="75"/>
+      <c r="D281" s="37"/>
+      <c r="E281" s="38"/>
     </row>
     <row r="282" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="74"/>
-      <c r="E282" s="75"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="38"/>
     </row>
     <row r="283" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="74"/>
-      <c r="E283" s="75"/>
+      <c r="D283" s="37"/>
+      <c r="E283" s="38"/>
     </row>
     <row r="284" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="74"/>
-      <c r="E284" s="75"/>
+      <c r="D284" s="37"/>
+      <c r="E284" s="38"/>
     </row>
     <row r="285" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="74"/>
-      <c r="E285" s="75"/>
+      <c r="D285" s="37"/>
+      <c r="E285" s="38"/>
     </row>
     <row r="286" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="74"/>
-      <c r="E286" s="75"/>
+      <c r="D286" s="37"/>
+      <c r="E286" s="38"/>
     </row>
     <row r="287" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="74"/>
-      <c r="E287" s="75"/>
+      <c r="D287" s="37"/>
+      <c r="E287" s="38"/>
     </row>
     <row r="288" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="74"/>
-      <c r="E288" s="75"/>
+      <c r="D288" s="37"/>
+      <c r="E288" s="38"/>
     </row>
     <row r="289" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="74"/>
-      <c r="E289" s="75"/>
+      <c r="D289" s="37"/>
+      <c r="E289" s="38"/>
     </row>
     <row r="290" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="74"/>
-      <c r="E290" s="75"/>
+      <c r="D290" s="37"/>
+      <c r="E290" s="38"/>
     </row>
     <row r="291" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="74"/>
-      <c r="E291" s="75"/>
+      <c r="D291" s="37"/>
+      <c r="E291" s="38"/>
     </row>
     <row r="292" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="74"/>
-      <c r="E292" s="75"/>
+      <c r="D292" s="37"/>
+      <c r="E292" s="38"/>
     </row>
     <row r="293" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="74"/>
-      <c r="E293" s="75"/>
+      <c r="D293" s="37"/>
+      <c r="E293" s="38"/>
     </row>
     <row r="294" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="74"/>
-      <c r="E294" s="75"/>
+      <c r="D294" s="37"/>
+      <c r="E294" s="38"/>
     </row>
     <row r="295" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="74"/>
-      <c r="E295" s="75"/>
+      <c r="D295" s="37"/>
+      <c r="E295" s="38"/>
     </row>
     <row r="296" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="74"/>
-      <c r="E296" s="75"/>
+      <c r="D296" s="37"/>
+      <c r="E296" s="38"/>
     </row>
     <row r="297" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="74"/>
-      <c r="E297" s="75"/>
+      <c r="D297" s="37"/>
+      <c r="E297" s="38"/>
     </row>
     <row r="298" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="74"/>
-      <c r="E298" s="75"/>
+      <c r="D298" s="37"/>
+      <c r="E298" s="38"/>
     </row>
     <row r="299" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="74"/>
-      <c r="E299" s="75"/>
+      <c r="D299" s="37"/>
+      <c r="E299" s="38"/>
     </row>
     <row r="300" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="74"/>
-      <c r="E300" s="75"/>
+      <c r="D300" s="37"/>
+      <c r="E300" s="38"/>
     </row>
     <row r="301" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="74"/>
-      <c r="E301" s="75"/>
+      <c r="D301" s="37"/>
+      <c r="E301" s="38"/>
     </row>
     <row r="302" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="74"/>
-      <c r="E302" s="75"/>
+      <c r="D302" s="37"/>
+      <c r="E302" s="38"/>
     </row>
     <row r="303" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="74"/>
-      <c r="E303" s="75"/>
+      <c r="D303" s="37"/>
+      <c r="E303" s="38"/>
     </row>
     <row r="304" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="74"/>
-      <c r="E304" s="75"/>
+      <c r="D304" s="37"/>
+      <c r="E304" s="38"/>
     </row>
     <row r="305" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="74"/>
-      <c r="E305" s="75"/>
+      <c r="D305" s="37"/>
+      <c r="E305" s="38"/>
     </row>
     <row r="306" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="74"/>
-      <c r="E306" s="75"/>
+      <c r="D306" s="37"/>
+      <c r="E306" s="38"/>
     </row>
     <row r="307" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="74"/>
-      <c r="E307" s="75"/>
+      <c r="D307" s="37"/>
+      <c r="E307" s="38"/>
     </row>
     <row r="308" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="74"/>
-      <c r="E308" s="75"/>
+      <c r="D308" s="37"/>
+      <c r="E308" s="38"/>
     </row>
     <row r="309" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="74"/>
-      <c r="E309" s="75"/>
+      <c r="D309" s="37"/>
+      <c r="E309" s="38"/>
     </row>
     <row r="310" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="74"/>
-      <c r="E310" s="75"/>
+      <c r="D310" s="37"/>
+      <c r="E310" s="38"/>
     </row>
     <row r="311" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="74"/>
-      <c r="E311" s="75"/>
+      <c r="D311" s="37"/>
+      <c r="E311" s="38"/>
     </row>
     <row r="312" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="74"/>
-      <c r="E312" s="75"/>
+      <c r="D312" s="37"/>
+      <c r="E312" s="38"/>
     </row>
     <row r="313" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="74"/>
-      <c r="E313" s="75"/>
+      <c r="D313" s="37"/>
+      <c r="E313" s="38"/>
     </row>
     <row r="314" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="74"/>
-      <c r="E314" s="75"/>
+      <c r="D314" s="37"/>
+      <c r="E314" s="38"/>
     </row>
     <row r="315" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="74"/>
-      <c r="E315" s="75"/>
+      <c r="D315" s="37"/>
+      <c r="E315" s="38"/>
     </row>
     <row r="316" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="74"/>
-      <c r="E316" s="75"/>
+      <c r="D316" s="37"/>
+      <c r="E316" s="38"/>
     </row>
     <row r="317" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="74"/>
-      <c r="E317" s="75"/>
+      <c r="D317" s="37"/>
+      <c r="E317" s="38"/>
     </row>
     <row r="318" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="74"/>
-      <c r="E318" s="75"/>
+      <c r="D318" s="37"/>
+      <c r="E318" s="38"/>
     </row>
     <row r="319" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="74"/>
-      <c r="E319" s="75"/>
+      <c r="D319" s="37"/>
+      <c r="E319" s="38"/>
     </row>
     <row r="320" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="74"/>
-      <c r="E320" s="75"/>
+      <c r="D320" s="37"/>
+      <c r="E320" s="38"/>
     </row>
     <row r="321" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="74"/>
-      <c r="E321" s="75"/>
+      <c r="D321" s="37"/>
+      <c r="E321" s="38"/>
     </row>
     <row r="322" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="74"/>
-      <c r="E322" s="75"/>
+      <c r="D322" s="37"/>
+      <c r="E322" s="38"/>
     </row>
     <row r="323" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="74"/>
-      <c r="E323" s="75"/>
+      <c r="D323" s="37"/>
+      <c r="E323" s="38"/>
     </row>
     <row r="324" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="74"/>
-      <c r="E324" s="75"/>
+      <c r="D324" s="37"/>
+      <c r="E324" s="38"/>
     </row>
     <row r="325" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="74"/>
-      <c r="E325" s="75"/>
+      <c r="D325" s="37"/>
+      <c r="E325" s="38"/>
     </row>
     <row r="326" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="74"/>
-      <c r="E326" s="75"/>
+      <c r="D326" s="37"/>
+      <c r="E326" s="38"/>
     </row>
     <row r="327" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="74"/>
-      <c r="E327" s="75"/>
+      <c r="D327" s="37"/>
+      <c r="E327" s="38"/>
     </row>
     <row r="328" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="74"/>
-      <c r="E328" s="75"/>
+      <c r="D328" s="37"/>
+      <c r="E328" s="38"/>
     </row>
     <row r="329" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="74"/>
-      <c r="E329" s="75"/>
+      <c r="D329" s="37"/>
+      <c r="E329" s="38"/>
     </row>
     <row r="330" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="74"/>
-      <c r="E330" s="75"/>
+      <c r="D330" s="37"/>
+      <c r="E330" s="38"/>
     </row>
     <row r="331" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="74"/>
-      <c r="E331" s="75"/>
+      <c r="D331" s="37"/>
+      <c r="E331" s="38"/>
     </row>
     <row r="332" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="74"/>
-      <c r="E332" s="75"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="38"/>
     </row>
     <row r="333" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="74"/>
-      <c r="E333" s="75"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="38"/>
     </row>
     <row r="334" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="74"/>
-      <c r="E334" s="75"/>
+      <c r="D334" s="37"/>
+      <c r="E334" s="38"/>
     </row>
     <row r="335" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="74"/>
-      <c r="E335" s="75"/>
+      <c r="D335" s="37"/>
+      <c r="E335" s="38"/>
     </row>
     <row r="336" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="74"/>
-      <c r="E336" s="75"/>
+      <c r="D336" s="37"/>
+      <c r="E336" s="38"/>
     </row>
     <row r="337" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="74"/>
-      <c r="E337" s="75"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="38"/>
     </row>
     <row r="338" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="74"/>
-      <c r="E338" s="75"/>
+      <c r="D338" s="37"/>
+      <c r="E338" s="38"/>
     </row>
     <row r="339" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="74"/>
-      <c r="E339" s="75"/>
+      <c r="D339" s="37"/>
+      <c r="E339" s="38"/>
     </row>
     <row r="340" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="74"/>
-      <c r="E340" s="75"/>
+      <c r="D340" s="37"/>
+      <c r="E340" s="38"/>
     </row>
     <row r="341" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="74"/>
-      <c r="E341" s="75"/>
+      <c r="D341" s="37"/>
+      <c r="E341" s="38"/>
     </row>
     <row r="342" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="74"/>
-      <c r="E342" s="75"/>
+      <c r="D342" s="37"/>
+      <c r="E342" s="38"/>
     </row>
     <row r="343" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="74"/>
-      <c r="E343" s="75"/>
+      <c r="D343" s="37"/>
+      <c r="E343" s="38"/>
     </row>
     <row r="344" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="74"/>
-      <c r="E344" s="75"/>
+      <c r="D344" s="37"/>
+      <c r="E344" s="38"/>
     </row>
     <row r="345" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="74"/>
-      <c r="E345" s="75"/>
+      <c r="D345" s="37"/>
+      <c r="E345" s="38"/>
     </row>
     <row r="346" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="74"/>
-      <c r="E346" s="75"/>
+      <c r="D346" s="37"/>
+      <c r="E346" s="38"/>
     </row>
     <row r="347" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="74"/>
-      <c r="E347" s="75"/>
+      <c r="D347" s="37"/>
+      <c r="E347" s="38"/>
     </row>
     <row r="348" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="74"/>
-      <c r="E348" s="75"/>
+      <c r="D348" s="37"/>
+      <c r="E348" s="38"/>
     </row>
     <row r="349" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="74"/>
-      <c r="E349" s="75"/>
+      <c r="D349" s="37"/>
+      <c r="E349" s="38"/>
     </row>
     <row r="350" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="74"/>
-      <c r="E350" s="75"/>
+      <c r="D350" s="37"/>
+      <c r="E350" s="38"/>
     </row>
     <row r="351" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="74"/>
-      <c r="E351" s="75"/>
+      <c r="D351" s="37"/>
+      <c r="E351" s="38"/>
     </row>
     <row r="352" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="74"/>
-      <c r="E352" s="75"/>
+      <c r="D352" s="37"/>
+      <c r="E352" s="38"/>
     </row>
     <row r="353" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="74"/>
-      <c r="E353" s="75"/>
+      <c r="D353" s="37"/>
+      <c r="E353" s="38"/>
     </row>
     <row r="354" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="74"/>
-      <c r="E354" s="75"/>
+      <c r="D354" s="37"/>
+      <c r="E354" s="38"/>
     </row>
     <row r="355" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="74"/>
-      <c r="E355" s="75"/>
+      <c r="D355" s="37"/>
+      <c r="E355" s="38"/>
     </row>
     <row r="356" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="74"/>
-      <c r="E356" s="75"/>
+      <c r="D356" s="37"/>
+      <c r="E356" s="38"/>
     </row>
     <row r="357" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="74"/>
-      <c r="E357" s="75"/>
+      <c r="D357" s="37"/>
+      <c r="E357" s="38"/>
     </row>
     <row r="358" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="74"/>
-      <c r="E358" s="75"/>
+      <c r="D358" s="37"/>
+      <c r="E358" s="38"/>
     </row>
     <row r="359" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="74"/>
-      <c r="E359" s="75"/>
+      <c r="D359" s="37"/>
+      <c r="E359" s="38"/>
     </row>
     <row r="360" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="74"/>
-      <c r="E360" s="75"/>
+      <c r="D360" s="37"/>
+      <c r="E360" s="38"/>
     </row>
     <row r="361" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="74"/>
-      <c r="E361" s="75"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="38"/>
     </row>
     <row r="362" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="74"/>
-      <c r="E362" s="75"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="38"/>
     </row>
     <row r="363" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="74"/>
-      <c r="E363" s="75"/>
+      <c r="D363" s="37"/>
+      <c r="E363" s="38"/>
     </row>
     <row r="364" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="74"/>
-      <c r="E364" s="75"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="38"/>
     </row>
     <row r="365" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="74"/>
-      <c r="E365" s="75"/>
+      <c r="D365" s="37"/>
+      <c r="E365" s="38"/>
     </row>
     <row r="366" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="74"/>
-      <c r="E366" s="75"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="38"/>
     </row>
     <row r="367" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="74"/>
-      <c r="E367" s="75"/>
+      <c r="D367" s="37"/>
+      <c r="E367" s="38"/>
     </row>
     <row r="368" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="74"/>
-      <c r="E368" s="75"/>
+      <c r="D368" s="37"/>
+      <c r="E368" s="38"/>
     </row>
     <row r="369" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="74"/>
-      <c r="E369" s="75"/>
+      <c r="D369" s="37"/>
+      <c r="E369" s="38"/>
     </row>
     <row r="370" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="74"/>
-      <c r="E370" s="75"/>
+      <c r="D370" s="37"/>
+      <c r="E370" s="38"/>
     </row>
     <row r="371" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="74"/>
-      <c r="E371" s="75"/>
+      <c r="D371" s="37"/>
+      <c r="E371" s="38"/>
     </row>
     <row r="372" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="74"/>
-      <c r="E372" s="75"/>
+      <c r="D372" s="37"/>
+      <c r="E372" s="38"/>
     </row>
     <row r="373" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="74"/>
-      <c r="E373" s="75"/>
+      <c r="D373" s="37"/>
+      <c r="E373" s="38"/>
     </row>
     <row r="374" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="74"/>
-      <c r="E374" s="75"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="38"/>
     </row>
     <row r="375" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="74"/>
-      <c r="E375" s="75"/>
+      <c r="D375" s="37"/>
+      <c r="E375" s="38"/>
     </row>
     <row r="376" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="74"/>
-      <c r="E376" s="75"/>
+      <c r="D376" s="37"/>
+      <c r="E376" s="38"/>
     </row>
     <row r="377" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="74"/>
-      <c r="E377" s="75"/>
+      <c r="D377" s="37"/>
+      <c r="E377" s="38"/>
     </row>
     <row r="378" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="74"/>
-      <c r="E378" s="75"/>
+      <c r="D378" s="37"/>
+      <c r="E378" s="38"/>
     </row>
     <row r="379" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="74"/>
-      <c r="E379" s="75"/>
+      <c r="D379" s="37"/>
+      <c r="E379" s="38"/>
     </row>
     <row r="380" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="74"/>
-      <c r="E380" s="75"/>
+      <c r="D380" s="37"/>
+      <c r="E380" s="38"/>
     </row>
     <row r="381" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D381" s="74"/>
-      <c r="E381" s="75"/>
+      <c r="D381" s="37"/>
+      <c r="E381" s="38"/>
     </row>
     <row r="382" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D382" s="74"/>
-      <c r="E382" s="75"/>
+      <c r="D382" s="37"/>
+      <c r="E382" s="38"/>
     </row>
     <row r="383" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D383" s="74"/>
-      <c r="E383" s="75"/>
+      <c r="D383" s="37"/>
+      <c r="E383" s="38"/>
     </row>
     <row r="384" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D384" s="74"/>
-      <c r="E384" s="75"/>
+      <c r="D384" s="37"/>
+      <c r="E384" s="38"/>
     </row>
     <row r="385" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D385" s="74"/>
-      <c r="E385" s="75"/>
+      <c r="D385" s="37"/>
+      <c r="E385" s="38"/>
     </row>
     <row r="386" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D386" s="74"/>
-      <c r="E386" s="75"/>
+      <c r="D386" s="37"/>
+      <c r="E386" s="38"/>
     </row>
     <row r="387" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D387" s="74"/>
-      <c r="E387" s="75"/>
+      <c r="D387" s="37"/>
+      <c r="E387" s="38"/>
     </row>
     <row r="388" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D388" s="74"/>
-      <c r="E388" s="75"/>
+      <c r="D388" s="37"/>
+      <c r="E388" s="38"/>
     </row>
     <row r="389" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D389" s="74"/>
-      <c r="E389" s="75"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="38"/>
     </row>
     <row r="390" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D390" s="74"/>
-      <c r="E390" s="75"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="38"/>
     </row>
     <row r="391" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D391" s="74"/>
-      <c r="E391" s="75"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="38"/>
     </row>
     <row r="392" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D392" s="74"/>
-      <c r="E392" s="75"/>
+      <c r="D392" s="37"/>
+      <c r="E392" s="38"/>
     </row>
     <row r="393" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D393" s="74"/>
-      <c r="E393" s="75"/>
+      <c r="D393" s="37"/>
+      <c r="E393" s="38"/>
     </row>
     <row r="394" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D394" s="74"/>
-      <c r="E394" s="75"/>
+      <c r="D394" s="37"/>
+      <c r="E394" s="38"/>
     </row>
     <row r="395" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D395" s="74"/>
-      <c r="E395" s="75"/>
+      <c r="D395" s="37"/>
+      <c r="E395" s="38"/>
     </row>
     <row r="396" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D396" s="74"/>
-      <c r="E396" s="75"/>
+      <c r="D396" s="37"/>
+      <c r="E396" s="38"/>
     </row>
     <row r="397" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D397" s="74"/>
-      <c r="E397" s="75"/>
+      <c r="D397" s="37"/>
+      <c r="E397" s="38"/>
     </row>
     <row r="398" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D398" s="74"/>
-      <c r="E398" s="75"/>
+      <c r="D398" s="37"/>
+      <c r="E398" s="38"/>
     </row>
     <row r="399" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D399" s="74"/>
-      <c r="E399" s="75"/>
+      <c r="D399" s="37"/>
+      <c r="E399" s="38"/>
     </row>
     <row r="400" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D400" s="74"/>
-      <c r="E400" s="75"/>
+      <c r="D400" s="37"/>
+      <c r="E400" s="38"/>
     </row>
     <row r="401" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D401" s="74"/>
-      <c r="E401" s="75"/>
+      <c r="D401" s="37"/>
+      <c r="E401" s="38"/>
     </row>
     <row r="402" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D402" s="74"/>
-      <c r="E402" s="75"/>
+      <c r="D402" s="37"/>
+      <c r="E402" s="38"/>
     </row>
     <row r="403" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D403" s="74"/>
-      <c r="E403" s="75"/>
+      <c r="D403" s="37"/>
+      <c r="E403" s="38"/>
     </row>
     <row r="404" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D404" s="74"/>
-      <c r="E404" s="75"/>
+      <c r="D404" s="37"/>
+      <c r="E404" s="38"/>
     </row>
     <row r="405" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D405" s="74"/>
-      <c r="E405" s="75"/>
+      <c r="D405" s="37"/>
+      <c r="E405" s="38"/>
     </row>
     <row r="406" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D406" s="74"/>
-      <c r="E406" s="75"/>
+      <c r="D406" s="37"/>
+      <c r="E406" s="38"/>
     </row>
     <row r="407" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D407" s="74"/>
-      <c r="E407" s="75"/>
+      <c r="D407" s="37"/>
+      <c r="E407" s="38"/>
     </row>
     <row r="408" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D408" s="74"/>
-      <c r="E408" s="75"/>
+      <c r="D408" s="37"/>
+      <c r="E408" s="38"/>
     </row>
     <row r="409" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D409" s="74"/>
-      <c r="E409" s="75"/>
+      <c r="D409" s="37"/>
+      <c r="E409" s="38"/>
     </row>
     <row r="410" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D410" s="74"/>
-      <c r="E410" s="75"/>
+      <c r="D410" s="37"/>
+      <c r="E410" s="38"/>
     </row>
     <row r="411" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D411" s="74"/>
-      <c r="E411" s="75"/>
+      <c r="D411" s="37"/>
+      <c r="E411" s="38"/>
     </row>
     <row r="412" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D412" s="74"/>
-      <c r="E412" s="75"/>
+      <c r="D412" s="37"/>
+      <c r="E412" s="38"/>
     </row>
     <row r="413" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D413" s="74"/>
-      <c r="E413" s="75"/>
+      <c r="D413" s="37"/>
+      <c r="E413" s="38"/>
     </row>
     <row r="414" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D414" s="74"/>
-      <c r="E414" s="75"/>
+      <c r="D414" s="37"/>
+      <c r="E414" s="38"/>
     </row>
     <row r="415" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D415" s="74"/>
-      <c r="E415" s="75"/>
+      <c r="D415" s="37"/>
+      <c r="E415" s="38"/>
     </row>
     <row r="416" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D416" s="74"/>
-      <c r="E416" s="75"/>
+      <c r="D416" s="37"/>
+      <c r="E416" s="38"/>
     </row>
     <row r="417" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D417" s="74"/>
-      <c r="E417" s="75"/>
+      <c r="D417" s="37"/>
+      <c r="E417" s="38"/>
     </row>
     <row r="418" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D418" s="74"/>
-      <c r="E418" s="75"/>
+      <c r="D418" s="37"/>
+      <c r="E418" s="38"/>
     </row>
     <row r="419" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D419" s="74"/>
-      <c r="E419" s="75"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="38"/>
     </row>
     <row r="420" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D420" s="74"/>
-      <c r="E420" s="75"/>
+      <c r="D420" s="37"/>
+      <c r="E420" s="38"/>
     </row>
     <row r="421" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D421" s="74"/>
-      <c r="E421" s="75"/>
+      <c r="D421" s="37"/>
+      <c r="E421" s="38"/>
     </row>
     <row r="422" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D422" s="74"/>
-      <c r="E422" s="75"/>
+      <c r="D422" s="37"/>
+      <c r="E422" s="38"/>
     </row>
     <row r="423" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D423" s="74"/>
-      <c r="E423" s="75"/>
+      <c r="D423" s="37"/>
+      <c r="E423" s="38"/>
     </row>
     <row r="424" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D424" s="74"/>
-      <c r="E424" s="75"/>
+      <c r="D424" s="37"/>
+      <c r="E424" s="38"/>
     </row>
     <row r="425" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D425" s="74"/>
-      <c r="E425" s="75"/>
+      <c r="D425" s="37"/>
+      <c r="E425" s="38"/>
     </row>
     <row r="426" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D426" s="74"/>
-      <c r="E426" s="75"/>
+      <c r="D426" s="37"/>
+      <c r="E426" s="38"/>
     </row>
     <row r="427" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D427" s="74"/>
-      <c r="E427" s="75"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="38"/>
     </row>
     <row r="428" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D428" s="74"/>
-      <c r="E428" s="75"/>
+      <c r="D428" s="37"/>
+      <c r="E428" s="38"/>
     </row>
     <row r="429" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D429" s="74"/>
-      <c r="E429" s="75"/>
+      <c r="D429" s="37"/>
+      <c r="E429" s="38"/>
     </row>
     <row r="430" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D430" s="74"/>
-      <c r="E430" s="75"/>
+      <c r="D430" s="37"/>
+      <c r="E430" s="38"/>
     </row>
     <row r="431" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D431" s="74"/>
-      <c r="E431" s="75"/>
+      <c r="D431" s="37"/>
+      <c r="E431" s="38"/>
     </row>
     <row r="432" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D432" s="74"/>
-      <c r="E432" s="75"/>
+      <c r="D432" s="37"/>
+      <c r="E432" s="38"/>
     </row>
     <row r="433" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D433" s="74"/>
-      <c r="E433" s="75"/>
+      <c r="D433" s="37"/>
+      <c r="E433" s="38"/>
     </row>
     <row r="434" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D434" s="74"/>
-      <c r="E434" s="75"/>
+      <c r="D434" s="37"/>
+      <c r="E434" s="38"/>
     </row>
     <row r="435" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D435" s="74"/>
-      <c r="E435" s="75"/>
+      <c r="D435" s="37"/>
+      <c r="E435" s="38"/>
     </row>
     <row r="436" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D436" s="74"/>
-      <c r="E436" s="75"/>
+      <c r="D436" s="37"/>
+      <c r="E436" s="38"/>
     </row>
     <row r="437" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D437" s="74"/>
-      <c r="E437" s="75"/>
+      <c r="D437" s="37"/>
+      <c r="E437" s="38"/>
     </row>
     <row r="438" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D438" s="74"/>
-      <c r="E438" s="75"/>
+      <c r="D438" s="37"/>
+      <c r="E438" s="38"/>
     </row>
     <row r="439" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D439" s="74"/>
-      <c r="E439" s="75"/>
+      <c r="D439" s="37"/>
+      <c r="E439" s="38"/>
     </row>
     <row r="440" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D440" s="74"/>
-      <c r="E440" s="75"/>
+      <c r="D440" s="37"/>
+      <c r="E440" s="38"/>
     </row>
     <row r="441" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D441" s="74"/>
-      <c r="E441" s="75"/>
+      <c r="D441" s="37"/>
+      <c r="E441" s="38"/>
     </row>
     <row r="442" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D442" s="74"/>
-      <c r="E442" s="75"/>
+      <c r="D442" s="37"/>
+      <c r="E442" s="38"/>
     </row>
     <row r="443" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D443" s="74"/>
-      <c r="E443" s="75"/>
+      <c r="D443" s="37"/>
+      <c r="E443" s="38"/>
     </row>
     <row r="444" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D444" s="74"/>
-      <c r="E444" s="75"/>
+      <c r="D444" s="37"/>
+      <c r="E444" s="38"/>
     </row>
     <row r="445" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D445" s="74"/>
-      <c r="E445" s="75"/>
+      <c r="D445" s="37"/>
+      <c r="E445" s="38"/>
     </row>
     <row r="446" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D446" s="74"/>
-      <c r="E446" s="75"/>
+      <c r="D446" s="37"/>
+      <c r="E446" s="38"/>
     </row>
     <row r="447" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D447" s="74"/>
-      <c r="E447" s="75"/>
+      <c r="D447" s="37"/>
+      <c r="E447" s="38"/>
     </row>
     <row r="448" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D448" s="74"/>
-      <c r="E448" s="75"/>
+      <c r="D448" s="37"/>
+      <c r="E448" s="38"/>
     </row>
     <row r="449" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D449" s="74"/>
-      <c r="E449" s="75"/>
+      <c r="D449" s="37"/>
+      <c r="E449" s="38"/>
     </row>
     <row r="450" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D450" s="74"/>
-      <c r="E450" s="75"/>
+      <c r="D450" s="37"/>
+      <c r="E450" s="38"/>
     </row>
     <row r="451" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D451" s="74"/>
-      <c r="E451" s="75"/>
+      <c r="D451" s="37"/>
+      <c r="E451" s="38"/>
     </row>
     <row r="452" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D452" s="74"/>
-      <c r="E452" s="75"/>
+      <c r="D452" s="37"/>
+      <c r="E452" s="38"/>
     </row>
     <row r="453" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D453" s="74"/>
-      <c r="E453" s="75"/>
+      <c r="D453" s="37"/>
+      <c r="E453" s="38"/>
     </row>
     <row r="454" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D454" s="74"/>
-      <c r="E454" s="75"/>
+      <c r="D454" s="37"/>
+      <c r="E454" s="38"/>
     </row>
     <row r="455" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D455" s="74"/>
-      <c r="E455" s="75"/>
+      <c r="D455" s="37"/>
+      <c r="E455" s="38"/>
     </row>
     <row r="456" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D456" s="74"/>
-      <c r="E456" s="75"/>
+      <c r="D456" s="37"/>
+      <c r="E456" s="38"/>
     </row>
     <row r="457" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D457" s="74"/>
-      <c r="E457" s="75"/>
+      <c r="D457" s="37"/>
+      <c r="E457" s="38"/>
     </row>
     <row r="458" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D458" s="74"/>
-      <c r="E458" s="75"/>
+      <c r="D458" s="37"/>
+      <c r="E458" s="38"/>
     </row>
     <row r="459" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D459" s="74"/>
-      <c r="E459" s="75"/>
+      <c r="D459" s="37"/>
+      <c r="E459" s="38"/>
     </row>
     <row r="460" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D460" s="74"/>
-      <c r="E460" s="75"/>
+      <c r="D460" s="37"/>
+      <c r="E460" s="38"/>
     </row>
     <row r="461" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D461" s="74"/>
-      <c r="E461" s="75"/>
+      <c r="D461" s="37"/>
+      <c r="E461" s="38"/>
     </row>
     <row r="462" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D462" s="74"/>
-      <c r="E462" s="75"/>
+      <c r="D462" s="37"/>
+      <c r="E462" s="38"/>
     </row>
     <row r="463" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D463" s="74"/>
-      <c r="E463" s="75"/>
+      <c r="D463" s="37"/>
+      <c r="E463" s="38"/>
     </row>
     <row r="464" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D464" s="74"/>
-      <c r="E464" s="75"/>
+      <c r="D464" s="37"/>
+      <c r="E464" s="38"/>
     </row>
     <row r="465" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D465" s="74"/>
-      <c r="E465" s="75"/>
+      <c r="D465" s="37"/>
+      <c r="E465" s="38"/>
     </row>
     <row r="466" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D466" s="74"/>
-      <c r="E466" s="75"/>
+      <c r="D466" s="37"/>
+      <c r="E466" s="38"/>
     </row>
     <row r="467" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D467" s="74"/>
-      <c r="E467" s="75"/>
+      <c r="D467" s="37"/>
+      <c r="E467" s="38"/>
     </row>
     <row r="468" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D468" s="74"/>
-      <c r="E468" s="75"/>
+      <c r="D468" s="37"/>
+      <c r="E468" s="38"/>
     </row>
     <row r="469" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D469" s="74"/>
-      <c r="E469" s="75"/>
+      <c r="D469" s="37"/>
+      <c r="E469" s="38"/>
     </row>
     <row r="470" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D470" s="74"/>
-      <c r="E470" s="75"/>
+      <c r="D470" s="37"/>
+      <c r="E470" s="38"/>
     </row>
     <row r="471" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D471" s="74"/>
-      <c r="E471" s="75"/>
+      <c r="D471" s="37"/>
+      <c r="E471" s="38"/>
     </row>
     <row r="472" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D472" s="74"/>
-      <c r="E472" s="75"/>
+      <c r="D472" s="37"/>
+      <c r="E472" s="38"/>
     </row>
     <row r="473" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D473" s="74"/>
-      <c r="E473" s="75"/>
+      <c r="D473" s="37"/>
+      <c r="E473" s="38"/>
     </row>
     <row r="474" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D474" s="74"/>
-      <c r="E474" s="75"/>
+      <c r="D474" s="37"/>
+      <c r="E474" s="38"/>
     </row>
     <row r="475" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D475" s="74"/>
-      <c r="E475" s="75"/>
+      <c r="D475" s="37"/>
+      <c r="E475" s="38"/>
     </row>
     <row r="476" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D476" s="74"/>
-      <c r="E476" s="75"/>
+      <c r="D476" s="37"/>
+      <c r="E476" s="38"/>
     </row>
     <row r="477" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D477" s="74"/>
-      <c r="E477" s="75"/>
+      <c r="D477" s="37"/>
+      <c r="E477" s="38"/>
     </row>
     <row r="478" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D478" s="74"/>
-      <c r="E478" s="75"/>
+      <c r="D478" s="37"/>
+      <c r="E478" s="38"/>
     </row>
     <row r="479" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D479" s="74"/>
-      <c r="E479" s="75"/>
+      <c r="D479" s="37"/>
+      <c r="E479" s="38"/>
     </row>
     <row r="480" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D480" s="74"/>
-      <c r="E480" s="75"/>
+      <c r="D480" s="37"/>
+      <c r="E480" s="38"/>
     </row>
     <row r="481" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D481" s="74"/>
-      <c r="E481" s="75"/>
+      <c r="D481" s="37"/>
+      <c r="E481" s="38"/>
     </row>
     <row r="482" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D482" s="74"/>
-      <c r="E482" s="75"/>
+      <c r="D482" s="37"/>
+      <c r="E482" s="38"/>
     </row>
     <row r="483" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D483" s="74"/>
-      <c r="E483" s="75"/>
+      <c r="D483" s="37"/>
+      <c r="E483" s="38"/>
     </row>
     <row r="484" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D484" s="74"/>
-      <c r="E484" s="75"/>
+      <c r="D484" s="37"/>
+      <c r="E484" s="38"/>
     </row>
     <row r="485" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D485" s="74"/>
-      <c r="E485" s="75"/>
+      <c r="D485" s="37"/>
+      <c r="E485" s="38"/>
     </row>
     <row r="486" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D486" s="74"/>
-      <c r="E486" s="75"/>
+      <c r="D486" s="37"/>
+      <c r="E486" s="38"/>
     </row>
     <row r="487" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D487" s="74"/>
-      <c r="E487" s="75"/>
+      <c r="D487" s="37"/>
+      <c r="E487" s="38"/>
     </row>
     <row r="488" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D488" s="74"/>
-      <c r="E488" s="75"/>
+      <c r="D488" s="37"/>
+      <c r="E488" s="38"/>
     </row>
     <row r="489" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D489" s="74"/>
-      <c r="E489" s="75"/>
+      <c r="D489" s="37"/>
+      <c r="E489" s="38"/>
     </row>
     <row r="490" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D490" s="74"/>
-      <c r="E490" s="75"/>
+      <c r="D490" s="37"/>
+      <c r="E490" s="38"/>
     </row>
     <row r="491" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D491" s="74"/>
-      <c r="E491" s="75"/>
+      <c r="D491" s="37"/>
+      <c r="E491" s="38"/>
     </row>
     <row r="492" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D492" s="74"/>
-      <c r="E492" s="75"/>
+      <c r="D492" s="37"/>
+      <c r="E492" s="38"/>
     </row>
     <row r="493" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D493" s="74"/>
-      <c r="E493" s="75"/>
+      <c r="D493" s="37"/>
+      <c r="E493" s="38"/>
     </row>
     <row r="494" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D494" s="74"/>
-      <c r="E494" s="75"/>
+      <c r="D494" s="37"/>
+      <c r="E494" s="38"/>
     </row>
     <row r="495" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D495" s="74"/>
-      <c r="E495" s="75"/>
+      <c r="D495" s="37"/>
+      <c r="E495" s="38"/>
     </row>
     <row r="496" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D496" s="74"/>
-      <c r="E496" s="75"/>
+      <c r="D496" s="37"/>
+      <c r="E496" s="38"/>
     </row>
     <row r="497" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D497" s="74"/>
-      <c r="E497" s="75"/>
+      <c r="D497" s="37"/>
+      <c r="E497" s="38"/>
     </row>
     <row r="498" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D498" s="74"/>
-      <c r="E498" s="75"/>
+      <c r="D498" s="37"/>
+      <c r="E498" s="38"/>
     </row>
     <row r="499" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D499" s="74"/>
-      <c r="E499" s="75"/>
+      <c r="D499" s="37"/>
+      <c r="E499" s="38"/>
     </row>
     <row r="500" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D500" s="74"/>
-      <c r="E500" s="75"/>
+      <c r="D500" s="37"/>
+      <c r="E500" s="38"/>
     </row>
     <row r="501" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D501" s="74"/>
-      <c r="E501" s="75"/>
+      <c r="D501" s="37"/>
+      <c r="E501" s="38"/>
     </row>
     <row r="502" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D502" s="74"/>
-      <c r="E502" s="75"/>
+      <c r="D502" s="37"/>
+      <c r="E502" s="38"/>
     </row>
     <row r="503" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D503" s="74"/>
-      <c r="E503" s="75"/>
+      <c r="D503" s="37"/>
+      <c r="E503" s="38"/>
     </row>
     <row r="504" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D504" s="74"/>
-      <c r="E504" s="75"/>
+      <c r="D504" s="37"/>
+      <c r="E504" s="38"/>
     </row>
     <row r="505" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D505" s="74"/>
-      <c r="E505" s="75"/>
+      <c r="D505" s="37"/>
+      <c r="E505" s="38"/>
     </row>
     <row r="506" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D506" s="74"/>
-      <c r="E506" s="75"/>
+      <c r="D506" s="37"/>
+      <c r="E506" s="38"/>
     </row>
     <row r="507" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D507" s="74"/>
-      <c r="E507" s="75"/>
+      <c r="D507" s="37"/>
+      <c r="E507" s="38"/>
     </row>
     <row r="508" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D508" s="74"/>
-      <c r="E508" s="75"/>
+      <c r="D508" s="37"/>
+      <c r="E508" s="38"/>
     </row>
     <row r="509" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D509" s="74"/>
-      <c r="E509" s="75"/>
+      <c r="D509" s="37"/>
+      <c r="E509" s="38"/>
     </row>
     <row r="510" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D510" s="74"/>
-      <c r="E510" s="75"/>
+      <c r="D510" s="37"/>
+      <c r="E510" s="38"/>
     </row>
     <row r="511" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D511" s="74"/>
-      <c r="E511" s="75"/>
+      <c r="D511" s="37"/>
+      <c r="E511" s="38"/>
     </row>
     <row r="512" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D512" s="74"/>
-      <c r="E512" s="75"/>
+      <c r="D512" s="37"/>
+      <c r="E512" s="38"/>
     </row>
     <row r="513" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D513" s="74"/>
-      <c r="E513" s="75"/>
+      <c r="D513" s="37"/>
+      <c r="E513" s="38"/>
     </row>
     <row r="514" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D514" s="74"/>
-      <c r="E514" s="75"/>
+      <c r="D514" s="37"/>
+      <c r="E514" s="38"/>
     </row>
     <row r="515" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D515" s="74"/>
-      <c r="E515" s="75"/>
+      <c r="D515" s="37"/>
+      <c r="E515" s="38"/>
     </row>
     <row r="516" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D516" s="74"/>
-      <c r="E516" s="75"/>
+      <c r="D516" s="37"/>
+      <c r="E516" s="38"/>
     </row>
     <row r="517" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D517" s="74"/>
-      <c r="E517" s="75"/>
+      <c r="D517" s="37"/>
+      <c r="E517" s="38"/>
     </row>
     <row r="518" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D518" s="74"/>
-      <c r="E518" s="75"/>
+      <c r="D518" s="37"/>
+      <c r="E518" s="38"/>
     </row>
     <row r="519" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D519" s="74"/>
-      <c r="E519" s="75"/>
+      <c r="D519" s="37"/>
+      <c r="E519" s="38"/>
     </row>
     <row r="520" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D520" s="74"/>
-      <c r="E520" s="75"/>
+      <c r="D520" s="37"/>
+      <c r="E520" s="38"/>
     </row>
     <row r="521" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D521" s="74"/>
-      <c r="E521" s="75"/>
+      <c r="D521" s="37"/>
+      <c r="E521" s="38"/>
     </row>
     <row r="522" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D522" s="74"/>
-      <c r="E522" s="75"/>
+      <c r="D522" s="37"/>
+      <c r="E522" s="38"/>
     </row>
     <row r="523" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D523" s="74"/>
-      <c r="E523" s="75"/>
+      <c r="D523" s="37"/>
+      <c r="E523" s="38"/>
     </row>
     <row r="524" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D524" s="74"/>
-      <c r="E524" s="75"/>
+      <c r="D524" s="37"/>
+      <c r="E524" s="38"/>
     </row>
     <row r="525" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D525" s="74"/>
-      <c r="E525" s="75"/>
+      <c r="D525" s="37"/>
+      <c r="E525" s="38"/>
     </row>
     <row r="526" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D526" s="74"/>
-      <c r="E526" s="75"/>
+      <c r="D526" s="37"/>
+      <c r="E526" s="38"/>
     </row>
     <row r="527" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D527" s="74"/>
-      <c r="E527" s="75"/>
+      <c r="D527" s="37"/>
+      <c r="E527" s="38"/>
     </row>
     <row r="528" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D528" s="74"/>
-      <c r="E528" s="75"/>
+      <c r="D528" s="37"/>
+      <c r="E528" s="38"/>
     </row>
     <row r="529" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D529" s="74"/>
-      <c r="E529" s="75"/>
+      <c r="D529" s="37"/>
+      <c r="E529" s="38"/>
     </row>
     <row r="530" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D530" s="74"/>
-      <c r="E530" s="75"/>
+      <c r="D530" s="37"/>
+      <c r="E530" s="38"/>
     </row>
     <row r="531" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D531" s="74"/>
-      <c r="E531" s="75"/>
+      <c r="D531" s="37"/>
+      <c r="E531" s="38"/>
     </row>
     <row r="532" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D532" s="74"/>
-      <c r="E532" s="75"/>
+      <c r="D532" s="37"/>
+      <c r="E532" s="38"/>
     </row>
     <row r="533" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D533" s="74"/>
-      <c r="E533" s="75"/>
+      <c r="D533" s="37"/>
+      <c r="E533" s="38"/>
     </row>
     <row r="534" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D534" s="74"/>
-      <c r="E534" s="75"/>
+      <c r="D534" s="37"/>
+      <c r="E534" s="38"/>
     </row>
     <row r="535" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D535" s="74"/>
-      <c r="E535" s="75"/>
+      <c r="D535" s="37"/>
+      <c r="E535" s="38"/>
     </row>
     <row r="536" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D536" s="74"/>
-      <c r="E536" s="75"/>
+      <c r="D536" s="37"/>
+      <c r="E536" s="38"/>
     </row>
     <row r="537" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D537" s="74"/>
-      <c r="E537" s="75"/>
+      <c r="D537" s="37"/>
+      <c r="E537" s="38"/>
     </row>
     <row r="538" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D538" s="74"/>
-      <c r="E538" s="75"/>
+      <c r="D538" s="37"/>
+      <c r="E538" s="38"/>
     </row>
     <row r="539" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D539" s="74"/>
-      <c r="E539" s="75"/>
+      <c r="D539" s="37"/>
+      <c r="E539" s="38"/>
     </row>
     <row r="540" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D540" s="74"/>
-      <c r="E540" s="75"/>
+      <c r="D540" s="37"/>
+      <c r="E540" s="38"/>
     </row>
     <row r="541" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D541" s="74"/>
-      <c r="E541" s="75"/>
+      <c r="D541" s="37"/>
+      <c r="E541" s="38"/>
     </row>
     <row r="542" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D542" s="74"/>
-      <c r="E542" s="75"/>
+      <c r="D542" s="37"/>
+      <c r="E542" s="38"/>
     </row>
     <row r="543" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D543" s="74"/>
-      <c r="E543" s="75"/>
+      <c r="D543" s="37"/>
+      <c r="E543" s="38"/>
     </row>
     <row r="544" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D544" s="74"/>
-      <c r="E544" s="75"/>
+      <c r="D544" s="37"/>
+      <c r="E544" s="38"/>
     </row>
     <row r="545" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D545" s="74"/>
-      <c r="E545" s="75"/>
+      <c r="D545" s="37"/>
+      <c r="E545" s="38"/>
     </row>
     <row r="546" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D546" s="74"/>
-      <c r="E546" s="75"/>
+      <c r="D546" s="37"/>
+      <c r="E546" s="38"/>
     </row>
     <row r="547" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D547" s="74"/>
-      <c r="E547" s="75"/>
+      <c r="D547" s="37"/>
+      <c r="E547" s="38"/>
     </row>
     <row r="548" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D548" s="74"/>
-      <c r="E548" s="75"/>
+      <c r="D548" s="37"/>
+      <c r="E548" s="38"/>
     </row>
     <row r="549" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D549" s="74"/>
-      <c r="E549" s="75"/>
+      <c r="D549" s="37"/>
+      <c r="E549" s="38"/>
     </row>
     <row r="550" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D550" s="74"/>
-      <c r="E550" s="75"/>
+      <c r="D550" s="37"/>
+      <c r="E550" s="38"/>
     </row>
     <row r="551" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D551" s="74"/>
-      <c r="E551" s="75"/>
+      <c r="D551" s="37"/>
+      <c r="E551" s="38"/>
     </row>
     <row r="552" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D552" s="74"/>
-      <c r="E552" s="75"/>
+      <c r="D552" s="37"/>
+      <c r="E552" s="38"/>
     </row>
     <row r="553" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D553" s="74"/>
-      <c r="E553" s="75"/>
+      <c r="D553" s="37"/>
+      <c r="E553" s="38"/>
     </row>
     <row r="554" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D554" s="74"/>
-      <c r="E554" s="75"/>
+      <c r="D554" s="37"/>
+      <c r="E554" s="38"/>
     </row>
     <row r="555" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D555" s="74"/>
-      <c r="E555" s="75"/>
+      <c r="D555" s="37"/>
+      <c r="E555" s="38"/>
     </row>
     <row r="556" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D556" s="74"/>
-      <c r="E556" s="75"/>
+      <c r="D556" s="37"/>
+      <c r="E556" s="38"/>
     </row>
     <row r="557" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D557" s="74"/>
-      <c r="E557" s="75"/>
+      <c r="D557" s="37"/>
+      <c r="E557" s="38"/>
     </row>
     <row r="558" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D558" s="74"/>
-      <c r="E558" s="75"/>
+      <c r="D558" s="37"/>
+      <c r="E558" s="38"/>
     </row>
     <row r="559" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D559" s="74"/>
-      <c r="E559" s="75"/>
+      <c r="D559" s="37"/>
+      <c r="E559" s="38"/>
     </row>
     <row r="560" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D560" s="74"/>
-      <c r="E560" s="75"/>
+      <c r="D560" s="37"/>
+      <c r="E560" s="38"/>
     </row>
     <row r="561" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D561" s="74"/>
-      <c r="E561" s="75"/>
+      <c r="D561" s="37"/>
+      <c r="E561" s="38"/>
     </row>
     <row r="562" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D562" s="74"/>
-      <c r="E562" s="75"/>
+      <c r="D562" s="37"/>
+      <c r="E562" s="38"/>
     </row>
     <row r="563" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D563" s="74"/>
-      <c r="E563" s="75"/>
+      <c r="D563" s="37"/>
+      <c r="E563" s="38"/>
     </row>
     <row r="564" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D564" s="74"/>
-      <c r="E564" s="75"/>
+      <c r="D564" s="37"/>
+      <c r="E564" s="38"/>
     </row>
     <row r="565" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D565" s="74"/>
-      <c r="E565" s="75"/>
+      <c r="D565" s="37"/>
+      <c r="E565" s="38"/>
     </row>
     <row r="566" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D566" s="74"/>
-      <c r="E566" s="75"/>
+      <c r="D566" s="37"/>
+      <c r="E566" s="38"/>
     </row>
     <row r="567" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D567" s="74"/>
-      <c r="E567" s="75"/>
+      <c r="D567" s="37"/>
+      <c r="E567" s="38"/>
     </row>
     <row r="568" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D568" s="74"/>
-      <c r="E568" s="75"/>
+      <c r="D568" s="37"/>
+      <c r="E568" s="38"/>
     </row>
     <row r="569" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D569" s="74"/>
-      <c r="E569" s="75"/>
+      <c r="D569" s="37"/>
+      <c r="E569" s="38"/>
     </row>
     <row r="570" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D570" s="74"/>
-      <c r="E570" s="75"/>
+      <c r="D570" s="37"/>
+      <c r="E570" s="38"/>
     </row>
     <row r="571" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D571" s="74"/>
-      <c r="E571" s="75"/>
+      <c r="D571" s="37"/>
+      <c r="E571" s="38"/>
     </row>
     <row r="572" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D572" s="74"/>
-      <c r="E572" s="75"/>
+      <c r="D572" s="37"/>
+      <c r="E572" s="38"/>
     </row>
     <row r="573" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D573" s="74"/>
-      <c r="E573" s="75"/>
+      <c r="D573" s="37"/>
+      <c r="E573" s="38"/>
     </row>
     <row r="574" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D574" s="74"/>
-      <c r="E574" s="75"/>
+      <c r="D574" s="37"/>
+      <c r="E574" s="38"/>
     </row>
     <row r="575" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D575" s="74"/>
-      <c r="E575" s="75"/>
+      <c r="D575" s="37"/>
+      <c r="E575" s="38"/>
     </row>
     <row r="576" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D576" s="74"/>
-      <c r="E576" s="75"/>
+      <c r="D576" s="37"/>
+      <c r="E576" s="38"/>
     </row>
     <row r="577" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D577" s="74"/>
-      <c r="E577" s="75"/>
+      <c r="D577" s="37"/>
+      <c r="E577" s="38"/>
     </row>
     <row r="578" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D578" s="74"/>
-      <c r="E578" s="75"/>
+      <c r="D578" s="37"/>
+      <c r="E578" s="38"/>
     </row>
     <row r="579" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D579" s="74"/>
-      <c r="E579" s="75"/>
+      <c r="D579" s="37"/>
+      <c r="E579" s="38"/>
     </row>
     <row r="580" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D580" s="74"/>
-      <c r="E580" s="75"/>
+      <c r="D580" s="37"/>
+      <c r="E580" s="38"/>
     </row>
     <row r="581" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D581" s="74"/>
-      <c r="E581" s="75"/>
+      <c r="D581" s="37"/>
+      <c r="E581" s="38"/>
     </row>
     <row r="582" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D582" s="74"/>
-      <c r="E582" s="75"/>
+      <c r="D582" s="37"/>
+      <c r="E582" s="38"/>
     </row>
     <row r="583" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D583" s="74"/>
-      <c r="E583" s="75"/>
+      <c r="D583" s="37"/>
+      <c r="E583" s="38"/>
     </row>
     <row r="584" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D584" s="74"/>
-      <c r="E584" s="75"/>
+      <c r="D584" s="37"/>
+      <c r="E584" s="38"/>
     </row>
     <row r="585" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D585" s="74"/>
-      <c r="E585" s="75"/>
+      <c r="D585" s="37"/>
+      <c r="E585" s="38"/>
     </row>
     <row r="586" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D586" s="74"/>
-      <c r="E586" s="75"/>
+      <c r="D586" s="37"/>
+      <c r="E586" s="38"/>
     </row>
     <row r="587" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D587" s="74"/>
-      <c r="E587" s="75"/>
+      <c r="D587" s="37"/>
+      <c r="E587" s="38"/>
     </row>
     <row r="588" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D588" s="74"/>
-      <c r="E588" s="75"/>
+      <c r="D588" s="37"/>
+      <c r="E588" s="38"/>
     </row>
     <row r="589" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D589" s="74"/>
-      <c r="E589" s="75"/>
+      <c r="D589" s="37"/>
+      <c r="E589" s="38"/>
     </row>
     <row r="590" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D590" s="74"/>
-      <c r="E590" s="75"/>
+      <c r="D590" s="37"/>
+      <c r="E590" s="38"/>
     </row>
     <row r="591" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D591" s="74"/>
-      <c r="E591" s="75"/>
+      <c r="D591" s="37"/>
+      <c r="E591" s="38"/>
     </row>
     <row r="592" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D592" s="74"/>
-      <c r="E592" s="75"/>
+      <c r="D592" s="37"/>
+      <c r="E592" s="38"/>
     </row>
     <row r="593" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D593" s="74"/>
-      <c r="E593" s="75"/>
+      <c r="D593" s="37"/>
+      <c r="E593" s="38"/>
     </row>
     <row r="594" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D594" s="74"/>
-      <c r="E594" s="75"/>
+      <c r="D594" s="37"/>
+      <c r="E594" s="38"/>
     </row>
     <row r="595" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D595" s="74"/>
-      <c r="E595" s="75"/>
+      <c r="D595" s="37"/>
+      <c r="E595" s="38"/>
     </row>
     <row r="596" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D596" s="74"/>
-      <c r="E596" s="75"/>
+      <c r="D596" s="37"/>
+      <c r="E596" s="38"/>
     </row>
     <row r="597" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D597" s="74"/>
-      <c r="E597" s="75"/>
+      <c r="D597" s="37"/>
+      <c r="E597" s="38"/>
     </row>
     <row r="598" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D598" s="74"/>
-      <c r="E598" s="75"/>
+      <c r="D598" s="37"/>
+      <c r="E598" s="38"/>
     </row>
     <row r="599" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D599" s="74"/>
-      <c r="E599" s="75"/>
+      <c r="D599" s="37"/>
+      <c r="E599" s="38"/>
     </row>
     <row r="600" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D600" s="74"/>
-      <c r="E600" s="75"/>
+      <c r="D600" s="37"/>
+      <c r="E600" s="38"/>
     </row>
     <row r="601" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D601" s="74"/>
-      <c r="E601" s="75"/>
+      <c r="D601" s="37"/>
+      <c r="E601" s="38"/>
     </row>
     <row r="602" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D602" s="74"/>
-      <c r="E602" s="75"/>
+      <c r="D602" s="37"/>
+      <c r="E602" s="38"/>
     </row>
     <row r="603" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D603" s="74"/>
-      <c r="E603" s="75"/>
+      <c r="D603" s="37"/>
+      <c r="E603" s="38"/>
     </row>
     <row r="604" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D604" s="74"/>
-      <c r="E604" s="75"/>
+      <c r="D604" s="37"/>
+      <c r="E604" s="38"/>
     </row>
     <row r="605" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D605" s="74"/>
-      <c r="E605" s="75"/>
+      <c r="D605" s="37"/>
+      <c r="E605" s="38"/>
     </row>
     <row r="606" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D606" s="74"/>
-      <c r="E606" s="75"/>
+      <c r="D606" s="37"/>
+      <c r="E606" s="38"/>
     </row>
     <row r="607" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D607" s="74"/>
-      <c r="E607" s="75"/>
+      <c r="D607" s="37"/>
+      <c r="E607" s="38"/>
     </row>
     <row r="608" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D608" s="74"/>
-      <c r="E608" s="75"/>
+      <c r="D608" s="37"/>
+      <c r="E608" s="38"/>
     </row>
     <row r="609" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D609" s="74"/>
-      <c r="E609" s="75"/>
+      <c r="D609" s="37"/>
+      <c r="E609" s="38"/>
     </row>
     <row r="610" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D610" s="74"/>
-      <c r="E610" s="75"/>
+      <c r="D610" s="37"/>
+      <c r="E610" s="38"/>
     </row>
     <row r="611" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D611" s="74"/>
-      <c r="E611" s="75"/>
+      <c r="D611" s="37"/>
+      <c r="E611" s="38"/>
     </row>
     <row r="612" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D612" s="74"/>
-      <c r="E612" s="75"/>
+      <c r="D612" s="37"/>
+      <c r="E612" s="38"/>
     </row>
     <row r="613" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D613" s="74"/>
-      <c r="E613" s="75"/>
+      <c r="D613" s="37"/>
+      <c r="E613" s="38"/>
     </row>
     <row r="614" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D614" s="74"/>
-      <c r="E614" s="75"/>
+      <c r="D614" s="37"/>
+      <c r="E614" s="38"/>
     </row>
     <row r="615" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D615" s="74"/>
-      <c r="E615" s="75"/>
+      <c r="D615" s="37"/>
+      <c r="E615" s="38"/>
     </row>
     <row r="616" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D616" s="74"/>
-      <c r="E616" s="75"/>
+      <c r="D616" s="37"/>
+      <c r="E616" s="38"/>
     </row>
     <row r="617" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D617" s="74"/>
-      <c r="E617" s="75"/>
+      <c r="D617" s="37"/>
+      <c r="E617" s="38"/>
     </row>
     <row r="618" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D618" s="74"/>
-      <c r="E618" s="75"/>
+      <c r="D618" s="37"/>
+      <c r="E618" s="38"/>
     </row>
     <row r="619" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D619" s="74"/>
-      <c r="E619" s="75"/>
+      <c r="D619" s="37"/>
+      <c r="E619" s="38"/>
     </row>
     <row r="620" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D620" s="74"/>
-      <c r="E620" s="75"/>
+      <c r="D620" s="37"/>
+      <c r="E620" s="38"/>
     </row>
     <row r="621" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D621" s="74"/>
-      <c r="E621" s="75"/>
+      <c r="D621" s="37"/>
+      <c r="E621" s="38"/>
     </row>
     <row r="622" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D622" s="74"/>
-      <c r="E622" s="75"/>
+      <c r="D622" s="37"/>
+      <c r="E622" s="38"/>
     </row>
     <row r="623" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D623" s="74"/>
-      <c r="E623" s="75"/>
+      <c r="D623" s="37"/>
+      <c r="E623" s="38"/>
     </row>
     <row r="624" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D624" s="74"/>
-      <c r="E624" s="75"/>
+      <c r="D624" s="37"/>
+      <c r="E624" s="38"/>
     </row>
     <row r="625" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D625" s="74"/>
-      <c r="E625" s="75"/>
+      <c r="D625" s="37"/>
+      <c r="E625" s="38"/>
     </row>
     <row r="626" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D626" s="74"/>
-      <c r="E626" s="75"/>
+      <c r="D626" s="37"/>
+      <c r="E626" s="38"/>
     </row>
     <row r="627" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D627" s="74"/>
-      <c r="E627" s="75"/>
+      <c r="D627" s="37"/>
+      <c r="E627" s="38"/>
     </row>
     <row r="628" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D628" s="74"/>
-      <c r="E628" s="75"/>
+      <c r="D628" s="37"/>
+      <c r="E628" s="38"/>
     </row>
     <row r="629" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D629" s="74"/>
-      <c r="E629" s="75"/>
+      <c r="D629" s="37"/>
+      <c r="E629" s="38"/>
     </row>
     <row r="630" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D630" s="74"/>
-      <c r="E630" s="75"/>
+      <c r="D630" s="37"/>
+      <c r="E630" s="38"/>
     </row>
     <row r="631" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D631" s="74"/>
-      <c r="E631" s="75"/>
+      <c r="D631" s="37"/>
+      <c r="E631" s="38"/>
     </row>
     <row r="632" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D632" s="74"/>
-      <c r="E632" s="75"/>
+      <c r="D632" s="37"/>
+      <c r="E632" s="38"/>
     </row>
     <row r="633" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D633" s="74"/>
-      <c r="E633" s="75"/>
+      <c r="D633" s="37"/>
+      <c r="E633" s="38"/>
     </row>
     <row r="634" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D634" s="74"/>
-      <c r="E634" s="75"/>
+      <c r="D634" s="37"/>
+      <c r="E634" s="38"/>
     </row>
     <row r="635" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D635" s="74"/>
-      <c r="E635" s="75"/>
+      <c r="D635" s="37"/>
+      <c r="E635" s="38"/>
     </row>
     <row r="636" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D636" s="74"/>
-      <c r="E636" s="75"/>
+      <c r="D636" s="37"/>
+      <c r="E636" s="38"/>
     </row>
     <row r="637" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D637" s="74"/>
-      <c r="E637" s="75"/>
+      <c r="D637" s="37"/>
+      <c r="E637" s="38"/>
     </row>
     <row r="638" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D638" s="74"/>
-      <c r="E638" s="75"/>
+      <c r="D638" s="37"/>
+      <c r="E638" s="38"/>
     </row>
     <row r="639" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D639" s="74"/>
-      <c r="E639" s="75"/>
+      <c r="D639" s="37"/>
+      <c r="E639" s="38"/>
     </row>
     <row r="640" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D640" s="74"/>
-      <c r="E640" s="75"/>
+      <c r="D640" s="37"/>
+      <c r="E640" s="38"/>
     </row>
     <row r="641" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D641" s="74"/>
-      <c r="E641" s="75"/>
+      <c r="D641" s="37"/>
+      <c r="E641" s="38"/>
     </row>
     <row r="642" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D642" s="74"/>
-      <c r="E642" s="75"/>
+      <c r="D642" s="37"/>
+      <c r="E642" s="38"/>
     </row>
     <row r="643" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D643" s="74"/>
-      <c r="E643" s="75"/>
+      <c r="D643" s="37"/>
+      <c r="E643" s="38"/>
     </row>
     <row r="644" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D644" s="74"/>
-      <c r="E644" s="75"/>
+      <c r="D644" s="37"/>
+      <c r="E644" s="38"/>
     </row>
     <row r="645" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D645" s="74"/>
-      <c r="E645" s="75"/>
+      <c r="D645" s="37"/>
+      <c r="E645" s="38"/>
     </row>
     <row r="646" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D646" s="74"/>
-      <c r="E646" s="75"/>
+      <c r="D646" s="37"/>
+      <c r="E646" s="38"/>
     </row>
     <row r="647" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D647" s="74"/>
-      <c r="E647" s="75"/>
+      <c r="D647" s="37"/>
+      <c r="E647" s="38"/>
     </row>
     <row r="648" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D648" s="74"/>
-      <c r="E648" s="75"/>
+      <c r="D648" s="37"/>
+      <c r="E648" s="38"/>
     </row>
     <row r="649" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D649" s="74"/>
-      <c r="E649" s="75"/>
+      <c r="D649" s="37"/>
+      <c r="E649" s="38"/>
     </row>
     <row r="650" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D650" s="74"/>
-      <c r="E650" s="75"/>
+      <c r="D650" s="37"/>
+      <c r="E650" s="38"/>
     </row>
     <row r="651" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D651" s="74"/>
-      <c r="E651" s="75"/>
+      <c r="D651" s="37"/>
+      <c r="E651" s="38"/>
     </row>
     <row r="652" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D652" s="74"/>
-      <c r="E652" s="75"/>
+      <c r="D652" s="37"/>
+      <c r="E652" s="38"/>
     </row>
     <row r="653" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D653" s="74"/>
-      <c r="E653" s="75"/>
+      <c r="D653" s="37"/>
+      <c r="E653" s="38"/>
     </row>
     <row r="654" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D654" s="74"/>
-      <c r="E654" s="75"/>
+      <c r="D654" s="37"/>
+      <c r="E654" s="38"/>
     </row>
     <row r="655" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D655" s="74"/>
-      <c r="E655" s="75"/>
+      <c r="D655" s="37"/>
+      <c r="E655" s="38"/>
     </row>
     <row r="656" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D656" s="74"/>
-      <c r="E656" s="75"/>
+      <c r="D656" s="37"/>
+      <c r="E656" s="38"/>
     </row>
     <row r="657" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D657" s="74"/>
-      <c r="E657" s="75"/>
+      <c r="D657" s="37"/>
+      <c r="E657" s="38"/>
     </row>
     <row r="658" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D658" s="74"/>
-      <c r="E658" s="75"/>
+      <c r="D658" s="37"/>
+      <c r="E658" s="38"/>
     </row>
     <row r="659" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D659" s="74"/>
-      <c r="E659" s="75"/>
+      <c r="D659" s="37"/>
+      <c r="E659" s="38"/>
     </row>
     <row r="660" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D660" s="74"/>
-      <c r="E660" s="75"/>
+      <c r="D660" s="37"/>
+      <c r="E660" s="38"/>
     </row>
     <row r="661" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D661" s="74"/>
-      <c r="E661" s="75"/>
+      <c r="D661" s="37"/>
+      <c r="E661" s="38"/>
     </row>
     <row r="662" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D662" s="74"/>
-      <c r="E662" s="75"/>
+      <c r="D662" s="37"/>
+      <c r="E662" s="38"/>
     </row>
     <row r="663" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D663" s="74"/>
-      <c r="E663" s="75"/>
+      <c r="D663" s="37"/>
+      <c r="E663" s="38"/>
     </row>
     <row r="664" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D664" s="74"/>
-      <c r="E664" s="75"/>
+      <c r="D664" s="37"/>
+      <c r="E664" s="38"/>
     </row>
     <row r="665" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D665" s="74"/>
-      <c r="E665" s="75"/>
+      <c r="D665" s="37"/>
+      <c r="E665" s="38"/>
     </row>
     <row r="666" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D666" s="74"/>
-      <c r="E666" s="75"/>
+      <c r="D666" s="37"/>
+      <c r="E666" s="38"/>
     </row>
     <row r="667" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D667" s="74"/>
-      <c r="E667" s="75"/>
+      <c r="D667" s="37"/>
+      <c r="E667" s="38"/>
     </row>
     <row r="668" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D668" s="74"/>
-      <c r="E668" s="75"/>
+      <c r="D668" s="37"/>
+      <c r="E668" s="38"/>
     </row>
     <row r="669" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D669" s="74"/>
-      <c r="E669" s="75"/>
+      <c r="D669" s="37"/>
+      <c r="E669" s="38"/>
     </row>
     <row r="670" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D670" s="74"/>
-      <c r="E670" s="75"/>
+      <c r="D670" s="37"/>
+      <c r="E670" s="38"/>
     </row>
     <row r="671" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D671" s="74"/>
-      <c r="E671" s="75"/>
+      <c r="D671" s="37"/>
+      <c r="E671" s="38"/>
     </row>
     <row r="672" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D672" s="74"/>
-      <c r="E672" s="75"/>
+      <c r="D672" s="37"/>
+      <c r="E672" s="38"/>
     </row>
     <row r="673" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D673" s="74"/>
-      <c r="E673" s="75"/>
+      <c r="D673" s="37"/>
+      <c r="E673" s="38"/>
     </row>
     <row r="674" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D674" s="74"/>
-      <c r="E674" s="75"/>
+      <c r="D674" s="37"/>
+      <c r="E674" s="38"/>
     </row>
     <row r="675" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D675" s="74"/>
-      <c r="E675" s="75"/>
+      <c r="D675" s="37"/>
+      <c r="E675" s="38"/>
     </row>
     <row r="676" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D676" s="74"/>
-      <c r="E676" s="75"/>
+      <c r="D676" s="37"/>
+      <c r="E676" s="38"/>
     </row>
     <row r="677" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D677" s="74"/>
-      <c r="E677" s="75"/>
+      <c r="D677" s="37"/>
+      <c r="E677" s="38"/>
     </row>
     <row r="678" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D678" s="74"/>
-      <c r="E678" s="75"/>
+      <c r="D678" s="37"/>
+      <c r="E678" s="38"/>
     </row>
     <row r="679" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D679" s="74"/>
-      <c r="E679" s="75"/>
+      <c r="D679" s="37"/>
+      <c r="E679" s="38"/>
     </row>
     <row r="680" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D680" s="74"/>
-      <c r="E680" s="75"/>
+      <c r="D680" s="37"/>
+      <c r="E680" s="38"/>
     </row>
     <row r="681" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D681" s="74"/>
-      <c r="E681" s="75"/>
+      <c r="D681" s="37"/>
+      <c r="E681" s="38"/>
     </row>
     <row r="682" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D682" s="74"/>
-      <c r="E682" s="75"/>
+      <c r="D682" s="37"/>
+      <c r="E682" s="38"/>
     </row>
     <row r="683" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D683" s="74"/>
-      <c r="E683" s="75"/>
+      <c r="D683" s="37"/>
+      <c r="E683" s="38"/>
     </row>
     <row r="684" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D684" s="74"/>
-      <c r="E684" s="75"/>
+      <c r="D684" s="37"/>
+      <c r="E684" s="38"/>
     </row>
     <row r="685" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D685" s="74"/>
-      <c r="E685" s="75"/>
+      <c r="D685" s="37"/>
+      <c r="E685" s="38"/>
     </row>
     <row r="686" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D686" s="74"/>
-      <c r="E686" s="75"/>
+      <c r="D686" s="37"/>
+      <c r="E686" s="38"/>
     </row>
     <row r="687" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D687" s="74"/>
-      <c r="E687" s="75"/>
+      <c r="D687" s="37"/>
+      <c r="E687" s="38"/>
     </row>
     <row r="688" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D688" s="74"/>
-      <c r="E688" s="75"/>
+      <c r="D688" s="37"/>
+      <c r="E688" s="38"/>
     </row>
     <row r="689" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D689" s="74"/>
-      <c r="E689" s="75"/>
+      <c r="D689" s="37"/>
+      <c r="E689" s="38"/>
     </row>
     <row r="690" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D690" s="74"/>
-      <c r="E690" s="75"/>
+      <c r="D690" s="37"/>
+      <c r="E690" s="38"/>
     </row>
     <row r="691" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D691" s="74"/>
-      <c r="E691" s="75"/>
+      <c r="D691" s="37"/>
+      <c r="E691" s="38"/>
     </row>
     <row r="692" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D692" s="74"/>
-      <c r="E692" s="75"/>
+      <c r="D692" s="37"/>
+      <c r="E692" s="38"/>
     </row>
     <row r="693" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D693" s="74"/>
-      <c r="E693" s="75"/>
+      <c r="D693" s="37"/>
+      <c r="E693" s="38"/>
     </row>
     <row r="694" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D694" s="74"/>
-      <c r="E694" s="75"/>
+      <c r="D694" s="37"/>
+      <c r="E694" s="38"/>
     </row>
     <row r="695" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D695" s="74"/>
-      <c r="E695" s="75"/>
+      <c r="D695" s="37"/>
+      <c r="E695" s="38"/>
     </row>
     <row r="696" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D696" s="74"/>
-      <c r="E696" s="75"/>
+      <c r="D696" s="37"/>
+      <c r="E696" s="38"/>
     </row>
     <row r="697" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D697" s="74"/>
-      <c r="E697" s="75"/>
+      <c r="D697" s="37"/>
+      <c r="E697" s="38"/>
     </row>
     <row r="698" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D698" s="74"/>
-      <c r="E698" s="75"/>
+      <c r="D698" s="37"/>
+      <c r="E698" s="38"/>
     </row>
     <row r="699" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D699" s="74"/>
-      <c r="E699" s="75"/>
+      <c r="D699" s="37"/>
+      <c r="E699" s="38"/>
     </row>
     <row r="700" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D700" s="74"/>
-      <c r="E700" s="75"/>
+      <c r="D700" s="37"/>
+      <c r="E700" s="38"/>
     </row>
     <row r="701" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D701" s="74"/>
-      <c r="E701" s="75"/>
+      <c r="D701" s="37"/>
+      <c r="E701" s="38"/>
     </row>
     <row r="702" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D702" s="74"/>
-      <c r="E702" s="75"/>
+      <c r="D702" s="37"/>
+      <c r="E702" s="38"/>
     </row>
     <row r="703" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D703" s="74"/>
-      <c r="E703" s="75"/>
+      <c r="D703" s="37"/>
+      <c r="E703" s="38"/>
     </row>
     <row r="704" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D704" s="74"/>
-      <c r="E704" s="75"/>
+      <c r="D704" s="37"/>
+      <c r="E704" s="38"/>
     </row>
     <row r="705" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D705" s="74"/>
-      <c r="E705" s="75"/>
+      <c r="D705" s="37"/>
+      <c r="E705" s="38"/>
     </row>
     <row r="706" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D706" s="74"/>
-      <c r="E706" s="75"/>
+      <c r="D706" s="37"/>
+      <c r="E706" s="38"/>
     </row>
     <row r="707" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D707" s="74"/>
-      <c r="E707" s="75"/>
+      <c r="D707" s="37"/>
+      <c r="E707" s="38"/>
     </row>
     <row r="708" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D708" s="74"/>
-      <c r="E708" s="75"/>
+      <c r="D708" s="37"/>
+      <c r="E708" s="38"/>
     </row>
     <row r="709" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D709" s="74"/>
-      <c r="E709" s="75"/>
+      <c r="D709" s="37"/>
+      <c r="E709" s="38"/>
     </row>
     <row r="710" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D710" s="74"/>
-      <c r="E710" s="75"/>
+      <c r="D710" s="37"/>
+      <c r="E710" s="38"/>
     </row>
     <row r="711" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D711" s="74"/>
-      <c r="E711" s="75"/>
+      <c r="D711" s="37"/>
+      <c r="E711" s="38"/>
     </row>
     <row r="712" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D712" s="74"/>
-      <c r="E712" s="75"/>
+      <c r="D712" s="37"/>
+      <c r="E712" s="38"/>
     </row>
     <row r="713" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D713" s="74"/>
-      <c r="E713" s="75"/>
+      <c r="D713" s="37"/>
+      <c r="E713" s="38"/>
     </row>
     <row r="714" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D714" s="74"/>
-      <c r="E714" s="75"/>
+      <c r="D714" s="37"/>
+      <c r="E714" s="38"/>
     </row>
     <row r="715" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D715" s="74"/>
-      <c r="E715" s="75"/>
+      <c r="D715" s="37"/>
+      <c r="E715" s="38"/>
     </row>
     <row r="716" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D716" s="74"/>
-      <c r="E716" s="75"/>
+      <c r="D716" s="37"/>
+      <c r="E716" s="38"/>
     </row>
     <row r="717" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D717" s="74"/>
-      <c r="E717" s="75"/>
+      <c r="D717" s="37"/>
+      <c r="E717" s="38"/>
     </row>
     <row r="718" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D718" s="74"/>
-      <c r="E718" s="75"/>
+      <c r="D718" s="37"/>
+      <c r="E718" s="38"/>
     </row>
     <row r="719" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D719" s="74"/>
-      <c r="E719" s="75"/>
+      <c r="D719" s="37"/>
+      <c r="E719" s="38"/>
     </row>
     <row r="720" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D720" s="74"/>
-      <c r="E720" s="75"/>
+      <c r="D720" s="37"/>
+      <c r="E720" s="38"/>
     </row>
     <row r="721" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D721" s="74"/>
-      <c r="E721" s="75"/>
+      <c r="D721" s="37"/>
+      <c r="E721" s="38"/>
     </row>
     <row r="722" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D722" s="74"/>
-      <c r="E722" s="75"/>
+      <c r="D722" s="37"/>
+      <c r="E722" s="38"/>
     </row>
     <row r="723" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D723" s="74"/>
-      <c r="E723" s="75"/>
+      <c r="D723" s="37"/>
+      <c r="E723" s="38"/>
     </row>
     <row r="724" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D724" s="74"/>
-      <c r="E724" s="75"/>
+      <c r="D724" s="37"/>
+      <c r="E724" s="38"/>
     </row>
     <row r="725" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D725" s="74"/>
-      <c r="E725" s="75"/>
+      <c r="D725" s="37"/>
+      <c r="E725" s="38"/>
     </row>
     <row r="726" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D726" s="74"/>
-      <c r="E726" s="75"/>
+      <c r="D726" s="37"/>
+      <c r="E726" s="38"/>
     </row>
     <row r="727" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D727" s="74"/>
-      <c r="E727" s="75"/>
+      <c r="D727" s="37"/>
+      <c r="E727" s="38"/>
     </row>
     <row r="728" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D728" s="74"/>
-      <c r="E728" s="75"/>
+      <c r="D728" s="37"/>
+      <c r="E728" s="38"/>
     </row>
     <row r="729" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D729" s="74"/>
-      <c r="E729" s="75"/>
+      <c r="D729" s="37"/>
+      <c r="E729" s="38"/>
     </row>
     <row r="730" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D730" s="74"/>
-      <c r="E730" s="75"/>
+      <c r="D730" s="37"/>
+      <c r="E730" s="38"/>
     </row>
     <row r="731" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D731" s="74"/>
-      <c r="E731" s="75"/>
+      <c r="D731" s="37"/>
+      <c r="E731" s="38"/>
     </row>
     <row r="732" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D732" s="74"/>
-      <c r="E732" s="75"/>
+      <c r="D732" s="37"/>
+      <c r="E732" s="38"/>
     </row>
     <row r="733" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D733" s="74"/>
-      <c r="E733" s="75"/>
+      <c r="D733" s="37"/>
+      <c r="E733" s="38"/>
     </row>
     <row r="734" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D734" s="74"/>
-      <c r="E734" s="75"/>
+      <c r="D734" s="37"/>
+      <c r="E734" s="38"/>
     </row>
     <row r="735" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D735" s="74"/>
-      <c r="E735" s="75"/>
+      <c r="D735" s="37"/>
+      <c r="E735" s="38"/>
     </row>
     <row r="736" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D736" s="74"/>
-      <c r="E736" s="75"/>
+      <c r="D736" s="37"/>
+      <c r="E736" s="38"/>
     </row>
     <row r="737" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D737" s="74"/>
-      <c r="E737" s="75"/>
+      <c r="D737" s="37"/>
+      <c r="E737" s="38"/>
     </row>
     <row r="738" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D738" s="74"/>
-      <c r="E738" s="75"/>
+      <c r="D738" s="37"/>
+      <c r="E738" s="38"/>
     </row>
     <row r="739" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D739" s="74"/>
-      <c r="E739" s="75"/>
+      <c r="D739" s="37"/>
+      <c r="E739" s="38"/>
     </row>
     <row r="740" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D740" s="74"/>
-      <c r="E740" s="75"/>
+      <c r="D740" s="37"/>
+      <c r="E740" s="38"/>
     </row>
     <row r="741" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D741" s="74"/>
-      <c r="E741" s="75"/>
+      <c r="D741" s="37"/>
+      <c r="E741" s="38"/>
     </row>
     <row r="742" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D742" s="74"/>
-      <c r="E742" s="75"/>
+      <c r="D742" s="37"/>
+      <c r="E742" s="38"/>
     </row>
     <row r="743" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D743" s="74"/>
-      <c r="E743" s="75"/>
+      <c r="D743" s="37"/>
+      <c r="E743" s="38"/>
     </row>
     <row r="744" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D744" s="74"/>
-      <c r="E744" s="75"/>
+      <c r="D744" s="37"/>
+      <c r="E744" s="38"/>
     </row>
     <row r="745" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D745" s="74"/>
-      <c r="E745" s="75"/>
+      <c r="D745" s="37"/>
+      <c r="E745" s="38"/>
     </row>
     <row r="746" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D746" s="74"/>
-      <c r="E746" s="75"/>
+      <c r="D746" s="37"/>
+      <c r="E746" s="38"/>
     </row>
     <row r="747" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D747" s="74"/>
-      <c r="E747" s="75"/>
+      <c r="D747" s="37"/>
+      <c r="E747" s="38"/>
     </row>
     <row r="748" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D748" s="74"/>
-      <c r="E748" s="75"/>
+      <c r="D748" s="37"/>
+      <c r="E748" s="38"/>
     </row>
     <row r="749" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D749" s="74"/>
-      <c r="E749" s="75"/>
+      <c r="D749" s="37"/>
+      <c r="E749" s="38"/>
     </row>
     <row r="750" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D750" s="74"/>
-      <c r="E750" s="75"/>
+      <c r="D750" s="37"/>
+      <c r="E750" s="38"/>
     </row>
     <row r="751" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D751" s="74"/>
-      <c r="E751" s="75"/>
+      <c r="D751" s="37"/>
+      <c r="E751" s="38"/>
     </row>
     <row r="752" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D752" s="74"/>
-      <c r="E752" s="75"/>
+      <c r="D752" s="37"/>
+      <c r="E752" s="38"/>
     </row>
     <row r="753" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D753" s="74"/>
-      <c r="E753" s="75"/>
+      <c r="D753" s="37"/>
+      <c r="E753" s="38"/>
     </row>
     <row r="754" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D754" s="74"/>
-      <c r="E754" s="75"/>
+      <c r="D754" s="37"/>
+      <c r="E754" s="38"/>
     </row>
     <row r="755" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D755" s="74"/>
-      <c r="E755" s="75"/>
+      <c r="D755" s="37"/>
+      <c r="E755" s="38"/>
     </row>
     <row r="756" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D756" s="74"/>
-      <c r="E756" s="75"/>
+      <c r="D756" s="37"/>
+      <c r="E756" s="38"/>
     </row>
     <row r="757" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D757" s="74"/>
-      <c r="E757" s="75"/>
+      <c r="D757" s="37"/>
+      <c r="E757" s="38"/>
     </row>
     <row r="758" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D758" s="74"/>
-      <c r="E758" s="75"/>
+      <c r="D758" s="37"/>
+      <c r="E758" s="38"/>
     </row>
     <row r="759" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D759" s="74"/>
-      <c r="E759" s="75"/>
+      <c r="D759" s="37"/>
+      <c r="E759" s="38"/>
     </row>
     <row r="760" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D760" s="74"/>
-      <c r="E760" s="75"/>
+      <c r="D760" s="37"/>
+      <c r="E760" s="38"/>
     </row>
     <row r="761" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D761" s="74"/>
-      <c r="E761" s="75"/>
+      <c r="D761" s="37"/>
+      <c r="E761" s="38"/>
     </row>
     <row r="762" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D762" s="74"/>
-      <c r="E762" s="75"/>
+      <c r="D762" s="37"/>
+      <c r="E762" s="38"/>
     </row>
     <row r="763" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D763" s="74"/>
-      <c r="E763" s="75"/>
+      <c r="D763" s="37"/>
+      <c r="E763" s="38"/>
     </row>
     <row r="764" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D764" s="74"/>
-      <c r="E764" s="75"/>
+      <c r="D764" s="37"/>
+      <c r="E764" s="38"/>
     </row>
     <row r="765" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D765" s="74"/>
-      <c r="E765" s="75"/>
+      <c r="D765" s="37"/>
+      <c r="E765" s="38"/>
     </row>
     <row r="766" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D766" s="74"/>
-      <c r="E766" s="75"/>
+      <c r="D766" s="37"/>
+      <c r="E766" s="38"/>
     </row>
     <row r="767" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D767" s="74"/>
-      <c r="E767" s="75"/>
+      <c r="D767" s="37"/>
+      <c r="E767" s="38"/>
     </row>
     <row r="768" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D768" s="74"/>
-      <c r="E768" s="75"/>
+      <c r="D768" s="37"/>
+      <c r="E768" s="38"/>
     </row>
     <row r="769" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D769" s="74"/>
-      <c r="E769" s="75"/>
+      <c r="D769" s="37"/>
+      <c r="E769" s="38"/>
     </row>
     <row r="770" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D770" s="74"/>
-      <c r="E770" s="75"/>
+      <c r="D770" s="37"/>
+      <c r="E770" s="38"/>
     </row>
     <row r="771" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D771" s="74"/>
-      <c r="E771" s="75"/>
+      <c r="D771" s="37"/>
+      <c r="E771" s="38"/>
     </row>
     <row r="772" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D772" s="74"/>
-      <c r="E772" s="75"/>
+      <c r="D772" s="37"/>
+      <c r="E772" s="38"/>
     </row>
     <row r="773" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D773" s="74"/>
-      <c r="E773" s="75"/>
+      <c r="D773" s="37"/>
+      <c r="E773" s="38"/>
     </row>
     <row r="774" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D774" s="74"/>
-      <c r="E774" s="75"/>
+      <c r="D774" s="37"/>
+      <c r="E774" s="38"/>
     </row>
     <row r="775" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D775" s="74"/>
-      <c r="E775" s="75"/>
+      <c r="D775" s="37"/>
+      <c r="E775" s="38"/>
     </row>
     <row r="776" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D776" s="74"/>
-      <c r="E776" s="75"/>
+      <c r="D776" s="37"/>
+      <c r="E776" s="38"/>
     </row>
     <row r="777" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D777" s="74"/>
-      <c r="E777" s="75"/>
+      <c r="D777" s="37"/>
+      <c r="E777" s="38"/>
     </row>
     <row r="778" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D778" s="74"/>
-      <c r="E778" s="75"/>
+      <c r="D778" s="37"/>
+      <c r="E778" s="38"/>
     </row>
     <row r="779" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D779" s="74"/>
-      <c r="E779" s="75"/>
+      <c r="D779" s="37"/>
+      <c r="E779" s="38"/>
     </row>
     <row r="780" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D780" s="74"/>
-      <c r="E780" s="75"/>
+      <c r="D780" s="37"/>
+      <c r="E780" s="38"/>
     </row>
     <row r="781" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D781" s="74"/>
-      <c r="E781" s="75"/>
+      <c r="D781" s="37"/>
+      <c r="E781" s="38"/>
     </row>
     <row r="782" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D782" s="74"/>
-      <c r="E782" s="75"/>
+      <c r="D782" s="37"/>
+      <c r="E782" s="38"/>
     </row>
     <row r="783" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D783" s="74"/>
-      <c r="E783" s="75"/>
+      <c r="D783" s="37"/>
+      <c r="E783" s="38"/>
     </row>
     <row r="784" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D784" s="74"/>
-      <c r="E784" s="75"/>
+      <c r="D784" s="37"/>
+      <c r="E784" s="38"/>
     </row>
     <row r="785" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D785" s="74"/>
-      <c r="E785" s="75"/>
+      <c r="D785" s="37"/>
+      <c r="E785" s="38"/>
     </row>
     <row r="786" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D786" s="74"/>
-      <c r="E786" s="75"/>
+      <c r="D786" s="37"/>
+      <c r="E786" s="38"/>
     </row>
     <row r="787" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D787" s="74"/>
-      <c r="E787" s="75"/>
+      <c r="D787" s="37"/>
+      <c r="E787" s="38"/>
     </row>
     <row r="788" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D788" s="74"/>
-      <c r="E788" s="75"/>
+      <c r="D788" s="37"/>
+      <c r="E788" s="38"/>
     </row>
     <row r="789" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D789" s="74"/>
-      <c r="E789" s="75"/>
+      <c r="D789" s="37"/>
+      <c r="E789" s="38"/>
     </row>
     <row r="790" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D790" s="74"/>
-      <c r="E790" s="75"/>
+      <c r="D790" s="37"/>
+      <c r="E790" s="38"/>
     </row>
     <row r="791" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D791" s="74"/>
-      <c r="E791" s="75"/>
+      <c r="D791" s="37"/>
+      <c r="E791" s="38"/>
     </row>
     <row r="792" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D792" s="74"/>
-      <c r="E792" s="75"/>
+      <c r="D792" s="37"/>
+      <c r="E792" s="38"/>
     </row>
     <row r="793" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D793" s="74"/>
-      <c r="E793" s="75"/>
+      <c r="D793" s="37"/>
+      <c r="E793" s="38"/>
     </row>
     <row r="794" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D794" s="74"/>
-      <c r="E794" s="75"/>
+      <c r="D794" s="37"/>
+      <c r="E794" s="38"/>
     </row>
     <row r="795" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D795" s="74"/>
-      <c r="E795" s="75"/>
+      <c r="D795" s="37"/>
+      <c r="E795" s="38"/>
     </row>
     <row r="796" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D796" s="74"/>
-      <c r="E796" s="75"/>
+      <c r="D796" s="37"/>
+      <c r="E796" s="38"/>
     </row>
     <row r="797" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D797" s="74"/>
-      <c r="E797" s="75"/>
+      <c r="D797" s="37"/>
+      <c r="E797" s="38"/>
     </row>
     <row r="798" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D798" s="74"/>
-      <c r="E798" s="75"/>
+      <c r="D798" s="37"/>
+      <c r="E798" s="38"/>
     </row>
     <row r="799" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D799" s="74"/>
-      <c r="E799" s="75"/>
+      <c r="D799" s="37"/>
+      <c r="E799" s="38"/>
     </row>
     <row r="800" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D800" s="74"/>
-      <c r="E800" s="75"/>
+      <c r="D800" s="37"/>
+      <c r="E800" s="38"/>
     </row>
     <row r="801" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D801" s="74"/>
-      <c r="E801" s="75"/>
+      <c r="D801" s="37"/>
+      <c r="E801" s="38"/>
     </row>
     <row r="802" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D802" s="74"/>
-      <c r="E802" s="75"/>
+      <c r="D802" s="37"/>
+      <c r="E802" s="38"/>
     </row>
     <row r="803" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D803" s="74"/>
-      <c r="E803" s="75"/>
+      <c r="D803" s="37"/>
+      <c r="E803" s="38"/>
     </row>
     <row r="804" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D804" s="74"/>
-      <c r="E804" s="75"/>
+      <c r="D804" s="37"/>
+      <c r="E804" s="38"/>
     </row>
     <row r="805" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D805" s="74"/>
-      <c r="E805" s="75"/>
+      <c r="D805" s="37"/>
+      <c r="E805" s="38"/>
     </row>
     <row r="806" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D806" s="74"/>
-      <c r="E806" s="75"/>
+      <c r="D806" s="37"/>
+      <c r="E806" s="38"/>
     </row>
     <row r="807" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D807" s="74"/>
-      <c r="E807" s="75"/>
+      <c r="D807" s="37"/>
+      <c r="E807" s="38"/>
     </row>
     <row r="808" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D808" s="74"/>
-      <c r="E808" s="75"/>
+      <c r="D808" s="37"/>
+      <c r="E808" s="38"/>
     </row>
     <row r="809" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D809" s="74"/>
-      <c r="E809" s="75"/>
+      <c r="D809" s="37"/>
+      <c r="E809" s="38"/>
     </row>
     <row r="810" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D810" s="74"/>
-      <c r="E810" s="75"/>
+      <c r="D810" s="37"/>
+      <c r="E810" s="38"/>
     </row>
     <row r="811" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D811" s="74"/>
-      <c r="E811" s="75"/>
+      <c r="D811" s="37"/>
+      <c r="E811" s="38"/>
     </row>
     <row r="812" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D812" s="74"/>
-      <c r="E812" s="75"/>
+      <c r="D812" s="37"/>
+      <c r="E812" s="38"/>
     </row>
     <row r="813" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D813" s="74"/>
-      <c r="E813" s="75"/>
+      <c r="D813" s="37"/>
+      <c r="E813" s="38"/>
     </row>
     <row r="814" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D814" s="74"/>
-      <c r="E814" s="75"/>
+      <c r="D814" s="37"/>
+      <c r="E814" s="38"/>
     </row>
     <row r="815" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D815" s="74"/>
-      <c r="E815" s="75"/>
+      <c r="D815" s="37"/>
+      <c r="E815" s="38"/>
     </row>
     <row r="816" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D816" s="74"/>
-      <c r="E816" s="75"/>
+      <c r="D816" s="37"/>
+      <c r="E816" s="38"/>
     </row>
     <row r="817" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D817" s="74"/>
-      <c r="E817" s="75"/>
+      <c r="D817" s="37"/>
+      <c r="E817" s="38"/>
     </row>
     <row r="818" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D818" s="74"/>
-      <c r="E818" s="75"/>
+      <c r="D818" s="37"/>
+      <c r="E818" s="38"/>
     </row>
     <row r="819" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D819" s="74"/>
-      <c r="E819" s="75"/>
+      <c r="D819" s="37"/>
+      <c r="E819" s="38"/>
     </row>
     <row r="820" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D820" s="74"/>
-      <c r="E820" s="75"/>
+      <c r="D820" s="37"/>
+      <c r="E820" s="38"/>
     </row>
     <row r="821" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D821" s="74"/>
-      <c r="E821" s="75"/>
+      <c r="D821" s="37"/>
+      <c r="E821" s="38"/>
     </row>
     <row r="822" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D822" s="74"/>
-      <c r="E822" s="75"/>
+      <c r="D822" s="37"/>
+      <c r="E822" s="38"/>
     </row>
     <row r="823" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D823" s="74"/>
-      <c r="E823" s="75"/>
+      <c r="D823" s="37"/>
+      <c r="E823" s="38"/>
     </row>
     <row r="824" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D824" s="74"/>
-      <c r="E824" s="75"/>
+      <c r="D824" s="37"/>
+      <c r="E824" s="38"/>
     </row>
     <row r="825" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D825" s="74"/>
-      <c r="E825" s="75"/>
+      <c r="D825" s="37"/>
+      <c r="E825" s="38"/>
     </row>
     <row r="826" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D826" s="74"/>
-      <c r="E826" s="75"/>
+      <c r="D826" s="37"/>
+      <c r="E826" s="38"/>
     </row>
     <row r="827" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D827" s="74"/>
-      <c r="E827" s="75"/>
+      <c r="D827" s="37"/>
+      <c r="E827" s="38"/>
     </row>
     <row r="828" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D828" s="74"/>
-      <c r="E828" s="75"/>
+      <c r="D828" s="37"/>
+      <c r="E828" s="38"/>
     </row>
     <row r="829" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D829" s="74"/>
-      <c r="E829" s="75"/>
+      <c r="D829" s="37"/>
+      <c r="E829" s="38"/>
     </row>
     <row r="830" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D830" s="74"/>
-      <c r="E830" s="75"/>
+      <c r="D830" s="37"/>
+      <c r="E830" s="38"/>
     </row>
     <row r="831" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D831" s="74"/>
-      <c r="E831" s="75"/>
+      <c r="D831" s="37"/>
+      <c r="E831" s="38"/>
     </row>
     <row r="832" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D832" s="74"/>
-      <c r="E832" s="75"/>
+      <c r="D832" s="37"/>
+      <c r="E832" s="38"/>
     </row>
     <row r="833" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D833" s="74"/>
-      <c r="E833" s="75"/>
+      <c r="D833" s="37"/>
+      <c r="E833" s="38"/>
     </row>
     <row r="834" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D834" s="74"/>
-      <c r="E834" s="75"/>
+      <c r="D834" s="37"/>
+      <c r="E834" s="38"/>
     </row>
     <row r="835" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D835" s="74"/>
-      <c r="E835" s="75"/>
+      <c r="D835" s="37"/>
+      <c r="E835" s="38"/>
     </row>
     <row r="836" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D836" s="74"/>
-      <c r="E836" s="75"/>
+      <c r="D836" s="37"/>
+      <c r="E836" s="38"/>
     </row>
     <row r="837" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D837" s="74"/>
-      <c r="E837" s="75"/>
+      <c r="D837" s="37"/>
+      <c r="E837" s="38"/>
     </row>
     <row r="838" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D838" s="74"/>
-      <c r="E838" s="75"/>
+      <c r="D838" s="37"/>
+      <c r="E838" s="38"/>
     </row>
     <row r="839" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D839" s="74"/>
-      <c r="E839" s="75"/>
+      <c r="D839" s="37"/>
+      <c r="E839" s="38"/>
     </row>
     <row r="840" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D840" s="74"/>
-      <c r="E840" s="75"/>
+      <c r="D840" s="37"/>
+      <c r="E840" s="38"/>
     </row>
     <row r="841" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D841" s="74"/>
-      <c r="E841" s="75"/>
+      <c r="D841" s="37"/>
+      <c r="E841" s="38"/>
     </row>
     <row r="842" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D842" s="74"/>
-      <c r="E842" s="75"/>
+      <c r="D842" s="37"/>
+      <c r="E842" s="38"/>
     </row>
     <row r="843" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D843" s="74"/>
-      <c r="E843" s="75"/>
+      <c r="D843" s="37"/>
+      <c r="E843" s="38"/>
     </row>
     <row r="844" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D844" s="74"/>
-      <c r="E844" s="75"/>
+      <c r="D844" s="37"/>
+      <c r="E844" s="38"/>
     </row>
     <row r="845" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D845" s="74"/>
-      <c r="E845" s="75"/>
+      <c r="D845" s="37"/>
+      <c r="E845" s="38"/>
     </row>
     <row r="846" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D846" s="74"/>
-      <c r="E846" s="75"/>
+      <c r="D846" s="37"/>
+      <c r="E846" s="38"/>
     </row>
     <row r="847" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D847" s="74"/>
-      <c r="E847" s="75"/>
+      <c r="D847" s="37"/>
+      <c r="E847" s="38"/>
     </row>
     <row r="848" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D848" s="74"/>
-      <c r="E848" s="75"/>
+      <c r="D848" s="37"/>
+      <c r="E848" s="38"/>
     </row>
     <row r="849" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D849" s="74"/>
-      <c r="E849" s="75"/>
+      <c r="D849" s="37"/>
+      <c r="E849" s="38"/>
     </row>
     <row r="850" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D850" s="74"/>
-      <c r="E850" s="75"/>
+      <c r="D850" s="37"/>
+      <c r="E850" s="38"/>
     </row>
     <row r="851" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D851" s="74"/>
-      <c r="E851" s="75"/>
+      <c r="D851" s="37"/>
+      <c r="E851" s="38"/>
     </row>
     <row r="852" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D852" s="74"/>
-      <c r="E852" s="75"/>
+      <c r="D852" s="37"/>
+      <c r="E852" s="38"/>
     </row>
     <row r="853" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D853" s="74"/>
-      <c r="E853" s="75"/>
+      <c r="D853" s="37"/>
+      <c r="E853" s="38"/>
     </row>
     <row r="854" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D854" s="74"/>
-      <c r="E854" s="75"/>
+      <c r="D854" s="37"/>
+      <c r="E854" s="38"/>
     </row>
     <row r="855" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D855" s="74"/>
-      <c r="E855" s="75"/>
+      <c r="D855" s="37"/>
+      <c r="E855" s="38"/>
     </row>
     <row r="856" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D856" s="74"/>
-      <c r="E856" s="75"/>
+      <c r="D856" s="37"/>
+      <c r="E856" s="38"/>
     </row>
     <row r="857" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D857" s="74"/>
-      <c r="E857" s="75"/>
+      <c r="D857" s="37"/>
+      <c r="E857" s="38"/>
     </row>
     <row r="858" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D858" s="74"/>
-      <c r="E858" s="75"/>
+      <c r="D858" s="37"/>
+      <c r="E858" s="38"/>
     </row>
     <row r="859" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D859" s="74"/>
-      <c r="E859" s="75"/>
+      <c r="D859" s="37"/>
+      <c r="E859" s="38"/>
     </row>
     <row r="860" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D860" s="74"/>
-      <c r="E860" s="75"/>
+      <c r="D860" s="37"/>
+      <c r="E860" s="38"/>
     </row>
     <row r="861" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D861" s="74"/>
-      <c r="E861" s="75"/>
+      <c r="D861" s="37"/>
+      <c r="E861" s="38"/>
     </row>
     <row r="862" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D862" s="74"/>
-      <c r="E862" s="75"/>
+      <c r="D862" s="37"/>
+      <c r="E862" s="38"/>
     </row>
     <row r="863" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D863" s="74"/>
-      <c r="E863" s="75"/>
+      <c r="D863" s="37"/>
+      <c r="E863" s="38"/>
     </row>
     <row r="864" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D864" s="74"/>
-      <c r="E864" s="75"/>
+      <c r="D864" s="37"/>
+      <c r="E864" s="38"/>
     </row>
     <row r="865" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D865" s="74"/>
-      <c r="E865" s="75"/>
+      <c r="D865" s="37"/>
+      <c r="E865" s="38"/>
     </row>
     <row r="866" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D866" s="74"/>
-      <c r="E866" s="75"/>
+      <c r="D866" s="37"/>
+      <c r="E866" s="38"/>
     </row>
     <row r="867" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D867" s="74"/>
-      <c r="E867" s="75"/>
+      <c r="D867" s="37"/>
+      <c r="E867" s="38"/>
     </row>
     <row r="868" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D868" s="74"/>
-      <c r="E868" s="75"/>
+      <c r="D868" s="37"/>
+      <c r="E868" s="38"/>
     </row>
     <row r="869" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D869" s="74"/>
-      <c r="E869" s="75"/>
+      <c r="D869" s="37"/>
+      <c r="E869" s="38"/>
     </row>
     <row r="870" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D870" s="74"/>
-      <c r="E870" s="75"/>
+      <c r="D870" s="37"/>
+      <c r="E870" s="38"/>
     </row>
     <row r="871" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D871" s="74"/>
-      <c r="E871" s="75"/>
+      <c r="D871" s="37"/>
+      <c r="E871" s="38"/>
     </row>
     <row r="872" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D872" s="74"/>
-      <c r="E872" s="75"/>
+      <c r="D872" s="37"/>
+      <c r="E872" s="38"/>
     </row>
     <row r="873" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D873" s="74"/>
-      <c r="E873" s="75"/>
+      <c r="D873" s="37"/>
+      <c r="E873" s="38"/>
     </row>
     <row r="874" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D874" s="74"/>
-      <c r="E874" s="75"/>
+      <c r="D874" s="37"/>
+      <c r="E874" s="38"/>
     </row>
     <row r="875" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D875" s="74"/>
-      <c r="E875" s="75"/>
+      <c r="D875" s="37"/>
+      <c r="E875" s="38"/>
     </row>
     <row r="876" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D876" s="74"/>
-      <c r="E876" s="75"/>
+      <c r="D876" s="37"/>
+      <c r="E876" s="38"/>
     </row>
     <row r="877" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D877" s="74"/>
-      <c r="E877" s="75"/>
+      <c r="D877" s="37"/>
+      <c r="E877" s="38"/>
     </row>
     <row r="878" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D878" s="74"/>
-      <c r="E878" s="75"/>
+      <c r="D878" s="37"/>
+      <c r="E878" s="38"/>
     </row>
     <row r="879" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D879" s="74"/>
-      <c r="E879" s="75"/>
+      <c r="D879" s="37"/>
+      <c r="E879" s="38"/>
     </row>
     <row r="880" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D880" s="74"/>
-      <c r="E880" s="75"/>
+      <c r="D880" s="37"/>
+      <c r="E880" s="38"/>
     </row>
     <row r="881" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D881" s="74"/>
-      <c r="E881" s="75"/>
+      <c r="D881" s="37"/>
+      <c r="E881" s="38"/>
     </row>
     <row r="882" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D882" s="74"/>
-      <c r="E882" s="75"/>
+      <c r="D882" s="37"/>
+      <c r="E882" s="38"/>
     </row>
     <row r="883" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D883" s="74"/>
-      <c r="E883" s="75"/>
+      <c r="D883" s="37"/>
+      <c r="E883" s="38"/>
     </row>
     <row r="884" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D884" s="74"/>
-      <c r="E884" s="75"/>
+      <c r="D884" s="37"/>
+      <c r="E884" s="38"/>
     </row>
     <row r="885" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D885" s="74"/>
-      <c r="E885" s="75"/>
+      <c r="D885" s="37"/>
+      <c r="E885" s="38"/>
     </row>
     <row r="886" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D886" s="74"/>
-      <c r="E886" s="75"/>
+      <c r="D886" s="37"/>
+      <c r="E886" s="38"/>
     </row>
     <row r="887" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D887" s="74"/>
-      <c r="E887" s="75"/>
+      <c r="D887" s="37"/>
+      <c r="E887" s="38"/>
     </row>
     <row r="888" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D888" s="74"/>
-      <c r="E888" s="75"/>
+      <c r="D888" s="37"/>
+      <c r="E888" s="38"/>
     </row>
     <row r="889" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D889" s="74"/>
-      <c r="E889" s="75"/>
+      <c r="D889" s="37"/>
+      <c r="E889" s="38"/>
     </row>
     <row r="890" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D890" s="74"/>
-      <c r="E890" s="75"/>
+      <c r="D890" s="37"/>
+      <c r="E890" s="38"/>
     </row>
     <row r="891" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D891" s="74"/>
-      <c r="E891" s="75"/>
+      <c r="D891" s="37"/>
+      <c r="E891" s="38"/>
     </row>
     <row r="892" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D892" s="74"/>
-      <c r="E892" s="75"/>
+      <c r="D892" s="37"/>
+      <c r="E892" s="38"/>
     </row>
     <row r="893" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D893" s="74"/>
-      <c r="E893" s="75"/>
+      <c r="D893" s="37"/>
+      <c r="E893" s="38"/>
     </row>
     <row r="894" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D894" s="74"/>
-      <c r="E894" s="75"/>
+      <c r="D894" s="37"/>
+      <c r="E894" s="38"/>
     </row>
     <row r="895" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D895" s="74"/>
-      <c r="E895" s="75"/>
+      <c r="D895" s="37"/>
+      <c r="E895" s="38"/>
     </row>
     <row r="896" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D896" s="74"/>
-      <c r="E896" s="75"/>
+      <c r="D896" s="37"/>
+      <c r="E896" s="38"/>
     </row>
     <row r="897" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D897" s="74"/>
-      <c r="E897" s="75"/>
+      <c r="D897" s="37"/>
+      <c r="E897" s="38"/>
     </row>
     <row r="898" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D898" s="74"/>
-      <c r="E898" s="75"/>
+      <c r="D898" s="37"/>
+      <c r="E898" s="38"/>
     </row>
     <row r="899" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D899" s="74"/>
-      <c r="E899" s="75"/>
+      <c r="D899" s="37"/>
+      <c r="E899" s="38"/>
     </row>
     <row r="900" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D900" s="74"/>
-      <c r="E900" s="75"/>
+      <c r="D900" s="37"/>
+      <c r="E900" s="38"/>
     </row>
     <row r="901" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D901" s="74"/>
-      <c r="E901" s="75"/>
+      <c r="D901" s="37"/>
+      <c r="E901" s="38"/>
     </row>
     <row r="902" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D902" s="74"/>
-      <c r="E902" s="75"/>
+      <c r="D902" s="37"/>
+      <c r="E902" s="38"/>
     </row>
     <row r="903" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D903" s="74"/>
-      <c r="E903" s="75"/>
+      <c r="D903" s="37"/>
+      <c r="E903" s="38"/>
     </row>
     <row r="904" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D904" s="74"/>
-      <c r="E904" s="75"/>
+      <c r="D904" s="37"/>
+      <c r="E904" s="38"/>
     </row>
     <row r="905" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D905" s="74"/>
-      <c r="E905" s="75"/>
+      <c r="D905" s="37"/>
+      <c r="E905" s="38"/>
     </row>
     <row r="906" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D906" s="74"/>
-      <c r="E906" s="75"/>
+      <c r="D906" s="37"/>
+      <c r="E906" s="38"/>
     </row>
     <row r="907" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D907" s="74"/>
-      <c r="E907" s="75"/>
+      <c r="D907" s="37"/>
+      <c r="E907" s="38"/>
     </row>
     <row r="908" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D908" s="74"/>
-      <c r="E908" s="75"/>
+      <c r="D908" s="37"/>
+      <c r="E908" s="38"/>
     </row>
     <row r="909" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D909" s="74"/>
-      <c r="E909" s="75"/>
+      <c r="D909" s="37"/>
+      <c r="E909" s="38"/>
     </row>
     <row r="910" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D910" s="74"/>
-      <c r="E910" s="75"/>
+      <c r="D910" s="37"/>
+      <c r="E910" s="38"/>
     </row>
     <row r="911" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D911" s="74"/>
-      <c r="E911" s="75"/>
+      <c r="D911" s="37"/>
+      <c r="E911" s="38"/>
     </row>
     <row r="912" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D912" s="74"/>
-      <c r="E912" s="75"/>
+      <c r="D912" s="37"/>
+      <c r="E912" s="38"/>
     </row>
     <row r="913" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D913" s="74"/>
-      <c r="E913" s="75"/>
+      <c r="D913" s="37"/>
+      <c r="E913" s="38"/>
     </row>
     <row r="914" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D914" s="74"/>
-      <c r="E914" s="75"/>
+      <c r="D914" s="37"/>
+      <c r="E914" s="38"/>
     </row>
     <row r="915" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D915" s="74"/>
-      <c r="E915" s="75"/>
+      <c r="D915" s="37"/>
+      <c r="E915" s="38"/>
     </row>
     <row r="916" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D916" s="74"/>
-      <c r="E916" s="75"/>
+      <c r="D916" s="37"/>
+      <c r="E916" s="38"/>
     </row>
     <row r="917" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D917" s="74"/>
-      <c r="E917" s="75"/>
+      <c r="D917" s="37"/>
+      <c r="E917" s="38"/>
     </row>
     <row r="918" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D918" s="74"/>
-      <c r="E918" s="75"/>
+      <c r="D918" s="37"/>
+      <c r="E918" s="38"/>
     </row>
     <row r="919" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D919" s="74"/>
-      <c r="E919" s="75"/>
+      <c r="D919" s="37"/>
+      <c r="E919" s="38"/>
     </row>
     <row r="920" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D920" s="74"/>
-      <c r="E920" s="75"/>
+      <c r="D920" s="37"/>
+      <c r="E920" s="38"/>
     </row>
     <row r="921" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D921" s="74"/>
-      <c r="E921" s="75"/>
+      <c r="D921" s="37"/>
+      <c r="E921" s="38"/>
     </row>
     <row r="922" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D922" s="74"/>
-      <c r="E922" s="75"/>
+      <c r="D922" s="37"/>
+      <c r="E922" s="38"/>
     </row>
     <row r="923" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D923" s="74"/>
-      <c r="E923" s="75"/>
+      <c r="D923" s="37"/>
+      <c r="E923" s="38"/>
     </row>
     <row r="924" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D924" s="74"/>
-      <c r="E924" s="75"/>
+      <c r="D924" s="37"/>
+      <c r="E924" s="38"/>
     </row>
     <row r="925" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D925" s="74"/>
-      <c r="E925" s="75"/>
+      <c r="D925" s="37"/>
+      <c r="E925" s="38"/>
     </row>
     <row r="926" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D926" s="74"/>
-      <c r="E926" s="75"/>
+      <c r="D926" s="37"/>
+      <c r="E926" s="38"/>
     </row>
     <row r="927" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D927" s="74"/>
-      <c r="E927" s="75"/>
+      <c r="D927" s="37"/>
+      <c r="E927" s="38"/>
     </row>
     <row r="928" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D928" s="74"/>
-      <c r="E928" s="75"/>
+      <c r="D928" s="37"/>
+      <c r="E928" s="38"/>
     </row>
     <row r="929" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D929" s="74"/>
-      <c r="E929" s="75"/>
+      <c r="D929" s="37"/>
+      <c r="E929" s="38"/>
     </row>
     <row r="930" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D930" s="74"/>
-      <c r="E930" s="75"/>
+      <c r="D930" s="37"/>
+      <c r="E930" s="38"/>
     </row>
     <row r="931" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D931" s="74"/>
-      <c r="E931" s="75"/>
+      <c r="D931" s="37"/>
+      <c r="E931" s="38"/>
     </row>
     <row r="932" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D932" s="74"/>
-      <c r="E932" s="75"/>
+      <c r="D932" s="37"/>
+      <c r="E932" s="38"/>
     </row>
     <row r="933" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D933" s="74"/>
-      <c r="E933" s="75"/>
+      <c r="D933" s="37"/>
+      <c r="E933" s="38"/>
     </row>
     <row r="934" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D934" s="74"/>
-      <c r="E934" s="75"/>
+      <c r="D934" s="37"/>
+      <c r="E934" s="38"/>
     </row>
     <row r="935" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D935" s="74"/>
-      <c r="E935" s="75"/>
+      <c r="D935" s="37"/>
+      <c r="E935" s="38"/>
     </row>
     <row r="936" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D936" s="74"/>
-      <c r="E936" s="75"/>
+      <c r="D936" s="37"/>
+      <c r="E936" s="38"/>
     </row>
     <row r="937" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D937" s="74"/>
-      <c r="E937" s="75"/>
+      <c r="D937" s="37"/>
+      <c r="E937" s="38"/>
     </row>
     <row r="938" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D938" s="74"/>
-      <c r="E938" s="75"/>
+      <c r="D938" s="37"/>
+      <c r="E938" s="38"/>
     </row>
     <row r="939" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D939" s="74"/>
-      <c r="E939" s="75"/>
+      <c r="D939" s="37"/>
+      <c r="E939" s="38"/>
     </row>
     <row r="940" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D940" s="74"/>
-      <c r="E940" s="75"/>
+      <c r="D940" s="37"/>
+      <c r="E940" s="38"/>
     </row>
     <row r="941" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D941" s="74"/>
-      <c r="E941" s="75"/>
+      <c r="D941" s="37"/>
+      <c r="E941" s="38"/>
     </row>
     <row r="942" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D942" s="74"/>
-      <c r="E942" s="75"/>
+      <c r="D942" s="37"/>
+      <c r="E942" s="38"/>
     </row>
     <row r="943" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D943" s="74"/>
-      <c r="E943" s="75"/>
+      <c r="D943" s="37"/>
+      <c r="E943" s="38"/>
     </row>
     <row r="944" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D944" s="74"/>
-      <c r="E944" s="75"/>
+      <c r="D944" s="37"/>
+      <c r="E944" s="38"/>
     </row>
     <row r="945" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D945" s="74"/>
-      <c r="E945" s="75"/>
+      <c r="D945" s="37"/>
+      <c r="E945" s="38"/>
     </row>
     <row r="946" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D946" s="74"/>
-      <c r="E946" s="75"/>
+      <c r="D946" s="37"/>
+      <c r="E946" s="38"/>
     </row>
     <row r="947" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D947" s="74"/>
-      <c r="E947" s="75"/>
+      <c r="D947" s="37"/>
+      <c r="E947" s="38"/>
     </row>
     <row r="948" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D948" s="74"/>
-      <c r="E948" s="75"/>
+      <c r="D948" s="37"/>
+      <c r="E948" s="38"/>
     </row>
     <row r="949" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D949" s="74"/>
-      <c r="E949" s="75"/>
+      <c r="D949" s="37"/>
+      <c r="E949" s="38"/>
     </row>
     <row r="950" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D950" s="74"/>
-      <c r="E950" s="75"/>
+      <c r="D950" s="37"/>
+      <c r="E950" s="38"/>
     </row>
     <row r="951" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D951" s="74"/>
-      <c r="E951" s="75"/>
+      <c r="D951" s="37"/>
+      <c r="E951" s="38"/>
     </row>
     <row r="952" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D952" s="74"/>
-      <c r="E952" s="75"/>
+      <c r="D952" s="37"/>
+      <c r="E952" s="38"/>
     </row>
     <row r="953" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D953" s="74"/>
-      <c r="E953" s="75"/>
+      <c r="D953" s="37"/>
+      <c r="E953" s="38"/>
     </row>
     <row r="954" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D954" s="74"/>
-      <c r="E954" s="75"/>
+      <c r="D954" s="37"/>
+      <c r="E954" s="38"/>
     </row>
     <row r="955" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D955" s="74"/>
-      <c r="E955" s="75"/>
+      <c r="D955" s="37"/>
+      <c r="E955" s="38"/>
     </row>
     <row r="956" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D956" s="74"/>
-      <c r="E956" s="75"/>
+      <c r="D956" s="37"/>
+      <c r="E956" s="38"/>
     </row>
     <row r="957" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D957" s="74"/>
-      <c r="E957" s="75"/>
+      <c r="D957" s="37"/>
+      <c r="E957" s="38"/>
     </row>
     <row r="958" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D958" s="74"/>
-      <c r="E958" s="75"/>
+      <c r="D958" s="37"/>
+      <c r="E958" s="38"/>
     </row>
     <row r="959" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D959" s="74"/>
-      <c r="E959" s="75"/>
+      <c r="D959" s="37"/>
+      <c r="E959" s="38"/>
     </row>
     <row r="960" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D960" s="74"/>
-      <c r="E960" s="75"/>
+      <c r="D960" s="37"/>
+      <c r="E960" s="38"/>
     </row>
     <row r="961" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D961" s="74"/>
-      <c r="E961" s="75"/>
+      <c r="D961" s="37"/>
+      <c r="E961" s="38"/>
     </row>
     <row r="962" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D962" s="74"/>
-      <c r="E962" s="75"/>
+      <c r="D962" s="37"/>
+      <c r="E962" s="38"/>
     </row>
     <row r="963" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D963" s="74"/>
-      <c r="E963" s="75"/>
+      <c r="D963" s="37"/>
+      <c r="E963" s="38"/>
     </row>
     <row r="964" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D964" s="74"/>
-      <c r="E964" s="75"/>
+      <c r="D964" s="37"/>
+      <c r="E964" s="38"/>
     </row>
     <row r="965" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D965" s="74"/>
-      <c r="E965" s="75"/>
+      <c r="D965" s="37"/>
+      <c r="E965" s="38"/>
     </row>
     <row r="966" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D966" s="74"/>
-      <c r="E966" s="75"/>
+      <c r="D966" s="37"/>
+      <c r="E966" s="38"/>
     </row>
     <row r="967" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D967" s="74"/>
-      <c r="E967" s="75"/>
+      <c r="D967" s="37"/>
+      <c r="E967" s="38"/>
     </row>
     <row r="968" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D968" s="74"/>
-      <c r="E968" s="75"/>
+      <c r="D968" s="37"/>
+      <c r="E968" s="38"/>
     </row>
     <row r="969" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D969" s="74"/>
-      <c r="E969" s="75"/>
+      <c r="D969" s="37"/>
+      <c r="E969" s="38"/>
     </row>
     <row r="970" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D970" s="74"/>
-      <c r="E970" s="75"/>
+      <c r="D970" s="37"/>
+      <c r="E970" s="38"/>
     </row>
     <row r="971" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D971" s="74"/>
-      <c r="E971" s="75"/>
+      <c r="D971" s="37"/>
+      <c r="E971" s="38"/>
     </row>
     <row r="972" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D972" s="74"/>
-      <c r="E972" s="75"/>
+      <c r="D972" s="37"/>
+      <c r="E972" s="38"/>
     </row>
     <row r="973" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D973" s="74"/>
-      <c r="E973" s="75"/>
+      <c r="D973" s="37"/>
+      <c r="E973" s="38"/>
     </row>
     <row r="974" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D974" s="74"/>
-      <c r="E974" s="75"/>
+      <c r="D974" s="37"/>
+      <c r="E974" s="38"/>
     </row>
     <row r="975" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D975" s="74"/>
-      <c r="E975" s="75"/>
+      <c r="D975" s="37"/>
+      <c r="E975" s="38"/>
     </row>
     <row r="976" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D976" s="74"/>
-      <c r="E976" s="75"/>
+      <c r="D976" s="37"/>
+      <c r="E976" s="38"/>
     </row>
     <row r="977" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D977" s="74"/>
-      <c r="E977" s="75"/>
+      <c r="D977" s="37"/>
+      <c r="E977" s="38"/>
     </row>
     <row r="978" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D978" s="74"/>
-      <c r="E978" s="75"/>
+      <c r="D978" s="37"/>
+      <c r="E978" s="38"/>
     </row>
     <row r="979" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D979" s="74"/>
-      <c r="E979" s="75"/>
+      <c r="D979" s="37"/>
+      <c r="E979" s="38"/>
     </row>
     <row r="980" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D980" s="74"/>
-      <c r="E980" s="75"/>
+      <c r="D980" s="37"/>
+      <c r="E980" s="38"/>
     </row>
     <row r="981" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D981" s="74"/>
-      <c r="E981" s="75"/>
+      <c r="D981" s="37"/>
+      <c r="E981" s="38"/>
     </row>
     <row r="982" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D982" s="74"/>
-      <c r="E982" s="75"/>
+      <c r="D982" s="37"/>
+      <c r="E982" s="38"/>
     </row>
     <row r="983" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D983" s="74"/>
-      <c r="E983" s="75"/>
+      <c r="D983" s="37"/>
+      <c r="E983" s="38"/>
     </row>
     <row r="984" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D984" s="74"/>
-      <c r="E984" s="75"/>
+      <c r="D984" s="37"/>
+      <c r="E984" s="38"/>
     </row>
     <row r="985" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D985" s="74"/>
-      <c r="E985" s="75"/>
+      <c r="D985" s="37"/>
+      <c r="E985" s="38"/>
     </row>
     <row r="986" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D986" s="74"/>
-      <c r="E986" s="75"/>
+      <c r="D986" s="37"/>
+      <c r="E986" s="38"/>
     </row>
     <row r="987" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D987" s="74"/>
-      <c r="E987" s="75"/>
+      <c r="D987" s="37"/>
+      <c r="E987" s="38"/>
     </row>
     <row r="988" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D988" s="74"/>
-      <c r="E988" s="75"/>
+      <c r="D988" s="37"/>
+      <c r="E988" s="38"/>
     </row>
     <row r="989" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D989" s="74"/>
-      <c r="E989" s="75"/>
+      <c r="D989" s="37"/>
+      <c r="E989" s="38"/>
     </row>
     <row r="990" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D990" s="74"/>
-      <c r="E990" s="75"/>
+      <c r="D990" s="37"/>
+      <c r="E990" s="38"/>
     </row>
     <row r="991" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D991" s="74"/>
-      <c r="E991" s="75"/>
+      <c r="D991" s="37"/>
+      <c r="E991" s="38"/>
     </row>
     <row r="992" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D992" s="74"/>
-      <c r="E992" s="75"/>
+      <c r="D992" s="37"/>
+      <c r="E992" s="38"/>
     </row>
     <row r="993" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D993" s="74"/>
-      <c r="E993" s="75"/>
+      <c r="D993" s="37"/>
+      <c r="E993" s="38"/>
     </row>
     <row r="994" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D994" s="74"/>
-      <c r="E994" s="75"/>
+      <c r="D994" s="37"/>
+      <c r="E994" s="38"/>
     </row>
     <row r="995" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D995" s="74"/>
-      <c r="E995" s="75"/>
+      <c r="D995" s="37"/>
+      <c r="E995" s="38"/>
     </row>
     <row r="996" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D996" s="74"/>
-      <c r="E996" s="75"/>
+      <c r="D996" s="37"/>
+      <c r="E996" s="38"/>
     </row>
     <row r="997" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D997" s="74"/>
-      <c r="E997" s="75"/>
+      <c r="D997" s="37"/>
+      <c r="E997" s="38"/>
     </row>
     <row r="998" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D998" s="74"/>
-      <c r="E998" s="75"/>
+      <c r="D998" s="37"/>
+      <c r="E998" s="38"/>
     </row>
     <row r="999" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D999" s="74"/>
-      <c r="E999" s="75"/>
+      <c r="D999" s="37"/>
+      <c r="E999" s="38"/>
     </row>
     <row r="1000" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1000" s="74"/>
-      <c r="E1000" s="75"/>
+      <c r="D1000" s="37"/>
+      <c r="E1000" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -6518,6 +6555,38 @@
     <hyperlink ref="F33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="F34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="F35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E4" r:id="rId31" xr:uid="{0779160A-F008-4645-98FF-454B5AFA3510}"/>
+    <hyperlink ref="E5" r:id="rId32" xr:uid="{C0E5BE70-F65C-4BED-B43B-B71F05160AF9}"/>
+    <hyperlink ref="E6" r:id="rId33" xr:uid="{779F6E42-B12C-4D49-8DCA-D38A9C33C551}"/>
+    <hyperlink ref="E7" r:id="rId34" xr:uid="{C64BA0B0-1644-4C79-89F0-C85782E08C07}"/>
+    <hyperlink ref="E8" r:id="rId35" xr:uid="{CB6A31EF-7484-4D1D-86CE-AA704B985AF8}"/>
+    <hyperlink ref="E9" r:id="rId36" xr:uid="{8399DC34-54CA-4A6A-A70F-99BBED36114F}"/>
+    <hyperlink ref="E10" r:id="rId37" xr:uid="{E53F8EB5-B4EF-4743-A499-7446CBC239DA}"/>
+    <hyperlink ref="E11" r:id="rId38" xr:uid="{7D7C3390-D0A5-4B49-8112-AF873C1024D7}"/>
+    <hyperlink ref="E12" r:id="rId39" xr:uid="{681F7A7A-3E30-4698-9F85-2E7E0722E3E5}"/>
+    <hyperlink ref="E13" r:id="rId40" xr:uid="{D6BBCABC-7A8B-4577-8E48-9BF0662F53C5}"/>
+    <hyperlink ref="E14" r:id="rId41" xr:uid="{A6145759-AF76-4A83-AA12-EE6F5922734A}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{1DC1B082-BA7B-40A0-8981-0CCE110D3A79}"/>
+    <hyperlink ref="E16" r:id="rId43" xr:uid="{3E25B170-25B3-4FD5-8647-A39711E72ED8}"/>
+    <hyperlink ref="E17" r:id="rId44" xr:uid="{C55E28DB-66D0-4A3B-A5BC-3E03F5F9292A}"/>
+    <hyperlink ref="E18" r:id="rId45" xr:uid="{3A16ED56-855C-4ECB-B175-AC3B928DCBC9}"/>
+    <hyperlink ref="E19" r:id="rId46" xr:uid="{023A85DB-02D5-49E0-93FE-C8A20ED97033}"/>
+    <hyperlink ref="E20" r:id="rId47" xr:uid="{B750E4E1-098E-4228-A7C0-59C308CBDB3C}"/>
+    <hyperlink ref="E21" r:id="rId48" xr:uid="{7BEEB309-EFD7-4051-AEDB-7D48EA0429B0}"/>
+    <hyperlink ref="E22" r:id="rId49" xr:uid="{6D74B096-9789-4E29-B7C5-2C347B65846E}"/>
+    <hyperlink ref="E23" r:id="rId50" xr:uid="{24B7DDB7-FC07-431B-9D03-F72F3DC918B8}"/>
+    <hyperlink ref="E24" r:id="rId51" xr:uid="{A6F53797-9598-4B7F-A240-66313A3BB535}"/>
+    <hyperlink ref="E25" r:id="rId52" xr:uid="{C6DF0E24-C21A-451C-A36A-607C0FE7617D}"/>
+    <hyperlink ref="E26" r:id="rId53" xr:uid="{D070587B-5BC4-4028-9600-5CA921DEF382}"/>
+    <hyperlink ref="E27" r:id="rId54" xr:uid="{781EA58E-2720-4BFA-A223-988198B3C7CE}"/>
+    <hyperlink ref="E28" r:id="rId55" xr:uid="{FF25431C-CE28-48AA-9257-6BDC6F74F739}"/>
+    <hyperlink ref="E29" r:id="rId56" xr:uid="{A83EAC98-0056-4CCF-B3DB-E498A263906D}"/>
+    <hyperlink ref="E30" r:id="rId57" xr:uid="{DB3DA1A8-9E2B-4EAA-9CD2-1FE3DBB8839C}"/>
+    <hyperlink ref="E31" r:id="rId58" xr:uid="{D3A32BAA-170D-4652-AA6E-15F82A27876D}"/>
+    <hyperlink ref="E32" r:id="rId59" xr:uid="{8AAA9D9C-490C-4897-824E-3205628419A8}"/>
+    <hyperlink ref="E33" r:id="rId60" xr:uid="{C7E90908-726B-4B32-98EF-3551D5746AF3}"/>
+    <hyperlink ref="E34" r:id="rId61" xr:uid="{FF97AD53-3537-4EB4-9E92-D58CBDF4BF23}"/>
+    <hyperlink ref="E35" r:id="rId62" xr:uid="{6F76DCA8-BCF8-48CF-A609-8F9D9227EA5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
